--- a/simulation data/true/Urumqi_data_2020.xlsx
+++ b/simulation data/true/Urumqi_data_2020.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2019_A" sheetId="1" r:id="rId1"/>
-    <sheet name="2019_B" sheetId="2" r:id="rId2"/>
-    <sheet name="2019_C" sheetId="3" r:id="rId3"/>
+    <sheet name="2020_A" sheetId="1" r:id="rId1"/>
+    <sheet name="2020_B" sheetId="2" r:id="rId2"/>
+    <sheet name="2020_C" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="10">
   <si>
     <t>city</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>AQI_avg</t>
+  </si>
+  <si>
+    <t>Urumqi</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,6 +438,1804 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>20191201</v>
+      </c>
+      <c r="C2">
+        <v>8.708333333333334</v>
+      </c>
+      <c r="D2">
+        <v>58.70833333333334</v>
+      </c>
+      <c r="E2">
+        <v>2.229583333333333</v>
+      </c>
+      <c r="F2">
+        <v>225.375</v>
+      </c>
+      <c r="G2">
+        <v>196.1666666666666</v>
+      </c>
+      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>246.1666666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>20191202</v>
+      </c>
+      <c r="C3">
+        <v>7.916666666666667</v>
+      </c>
+      <c r="D3">
+        <v>60.625</v>
+      </c>
+      <c r="E3">
+        <v>2.284583333333333</v>
+      </c>
+      <c r="F3">
+        <v>165.9166666666667</v>
+      </c>
+      <c r="G3">
+        <v>146.0833333333333</v>
+      </c>
+      <c r="H3">
+        <v>27</v>
+      </c>
+      <c r="I3">
+        <v>189.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>20191203</v>
+      </c>
+      <c r="C4">
+        <v>8.739130434782609</v>
+      </c>
+      <c r="D4">
+        <v>71.95652173913044</v>
+      </c>
+      <c r="E4">
+        <v>2.323478260869565</v>
+      </c>
+      <c r="F4">
+        <v>159.1739130434783</v>
+      </c>
+      <c r="G4">
+        <v>131.304347826087</v>
+      </c>
+      <c r="H4">
+        <v>22</v>
+      </c>
+      <c r="I4">
+        <v>171.4782608695652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>20191204</v>
+      </c>
+      <c r="C5">
+        <v>10.25</v>
+      </c>
+      <c r="D5">
+        <v>71.45833333333333</v>
+      </c>
+      <c r="E5">
+        <v>2.565</v>
+      </c>
+      <c r="F5">
+        <v>251.8333333333333</v>
+      </c>
+      <c r="G5">
+        <v>214.9583333333333</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>264.7083333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>20191205</v>
+      </c>
+      <c r="C6">
+        <v>13.70833333333333</v>
+      </c>
+      <c r="D6">
+        <v>69.91666666666667</v>
+      </c>
+      <c r="E6">
+        <v>2.2125</v>
+      </c>
+      <c r="F6">
+        <v>178.7916666666667</v>
+      </c>
+      <c r="G6">
+        <v>163.1666666666667</v>
+      </c>
+      <c r="H6">
+        <v>27</v>
+      </c>
+      <c r="I6">
+        <v>209.2083333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>20191206</v>
+      </c>
+      <c r="C7">
+        <v>11.125</v>
+      </c>
+      <c r="D7">
+        <v>80.79166666666667</v>
+      </c>
+      <c r="E7">
+        <v>2.066666666666667</v>
+      </c>
+      <c r="F7">
+        <v>133.375</v>
+      </c>
+      <c r="G7">
+        <v>111.8333333333333</v>
+      </c>
+      <c r="H7">
+        <v>24</v>
+      </c>
+      <c r="I7">
+        <v>146.9166666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>20191207</v>
+      </c>
+      <c r="C8">
+        <v>11.375</v>
+      </c>
+      <c r="D8">
+        <v>63.79166666666666</v>
+      </c>
+      <c r="E8">
+        <v>1.500833333333334</v>
+      </c>
+      <c r="F8">
+        <v>69.25</v>
+      </c>
+      <c r="G8">
+        <v>66.54166666666667</v>
+      </c>
+      <c r="H8">
+        <v>36</v>
+      </c>
+      <c r="I8">
+        <v>89.54166666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>20191208</v>
+      </c>
+      <c r="C9">
+        <v>9.541666666666666</v>
+      </c>
+      <c r="D9">
+        <v>64.66666666666667</v>
+      </c>
+      <c r="E9">
+        <v>1.749583333333333</v>
+      </c>
+      <c r="F9">
+        <v>99.08333333333331</v>
+      </c>
+      <c r="G9">
+        <v>90.91666666666669</v>
+      </c>
+      <c r="H9">
+        <v>27</v>
+      </c>
+      <c r="I9">
+        <v>121.0833333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>20191209</v>
+      </c>
+      <c r="C10">
+        <v>7.956521739130435</v>
+      </c>
+      <c r="D10">
+        <v>63.26086956521739</v>
+      </c>
+      <c r="E10">
+        <v>1.901739130434782</v>
+      </c>
+      <c r="F10">
+        <v>119.8695652173913</v>
+      </c>
+      <c r="G10">
+        <v>110.695652173913</v>
+      </c>
+      <c r="H10">
+        <v>26</v>
+      </c>
+      <c r="I10">
+        <v>144.4782608695652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>20191210</v>
+      </c>
+      <c r="C11">
+        <v>7.583333333333333</v>
+      </c>
+      <c r="D11">
+        <v>60.5</v>
+      </c>
+      <c r="E11">
+        <v>2.662083333333333</v>
+      </c>
+      <c r="F11">
+        <v>186.25</v>
+      </c>
+      <c r="G11">
+        <v>165.1666666666667</v>
+      </c>
+      <c r="H11">
+        <v>61</v>
+      </c>
+      <c r="I11">
+        <v>213.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>20191211</v>
+      </c>
+      <c r="C12">
+        <v>8.782608695652174</v>
+      </c>
+      <c r="D12">
+        <v>67.60869565217391</v>
+      </c>
+      <c r="E12">
+        <v>2.697826086956522</v>
+      </c>
+      <c r="F12">
+        <v>168.0869565217391</v>
+      </c>
+      <c r="G12">
+        <v>155.1304347826087</v>
+      </c>
+      <c r="H12">
+        <v>24</v>
+      </c>
+      <c r="I12">
+        <v>201.0434782608696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>20191212</v>
+      </c>
+      <c r="C13">
+        <v>7.708333333333333</v>
+      </c>
+      <c r="D13">
+        <v>66.625</v>
+      </c>
+      <c r="E13">
+        <v>2.728333333333333</v>
+      </c>
+      <c r="F13">
+        <v>154.375</v>
+      </c>
+      <c r="G13">
+        <v>144.9583333333333</v>
+      </c>
+      <c r="H13">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <v>189.875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>20191213</v>
+      </c>
+      <c r="C14">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="D14">
+        <v>64.58333333333333</v>
+      </c>
+      <c r="E14">
+        <v>2.965833333333334</v>
+      </c>
+      <c r="F14">
+        <v>171.7083333333333</v>
+      </c>
+      <c r="G14">
+        <v>150.2083333333333</v>
+      </c>
+      <c r="H14">
+        <v>22</v>
+      </c>
+      <c r="I14">
+        <v>197.0833333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>20191214</v>
+      </c>
+      <c r="C15">
+        <v>8.041666666666666</v>
+      </c>
+      <c r="D15">
+        <v>64.875</v>
+      </c>
+      <c r="E15">
+        <v>2.64875</v>
+      </c>
+      <c r="F15">
+        <v>176.125</v>
+      </c>
+      <c r="G15">
+        <v>143.75</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>188.7083333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>20191215</v>
+      </c>
+      <c r="C16">
+        <v>7.708333333333333</v>
+      </c>
+      <c r="D16">
+        <v>51.20833333333334</v>
+      </c>
+      <c r="E16">
+        <v>1.401666666666667</v>
+      </c>
+      <c r="F16">
+        <v>55.375</v>
+      </c>
+      <c r="G16">
+        <v>61.41666666666666</v>
+      </c>
+      <c r="H16">
+        <v>37</v>
+      </c>
+      <c r="I16">
+        <v>83.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>20191216</v>
+      </c>
+      <c r="C17">
+        <v>7.625</v>
+      </c>
+      <c r="D17">
+        <v>41.70833333333334</v>
+      </c>
+      <c r="E17">
+        <v>1.362083333333333</v>
+      </c>
+      <c r="F17">
+        <v>59.45833333333334</v>
+      </c>
+      <c r="G17">
+        <v>67.16666666666667</v>
+      </c>
+      <c r="H17">
+        <v>26</v>
+      </c>
+      <c r="I17">
+        <v>90.33333333333331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>20191217</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>37.91666666666666</v>
+      </c>
+      <c r="E18">
+        <v>1.22625</v>
+      </c>
+      <c r="F18">
+        <v>27.45833333333333</v>
+      </c>
+      <c r="G18">
+        <v>31.5</v>
+      </c>
+      <c r="H18">
+        <v>25</v>
+      </c>
+      <c r="I18">
+        <v>44.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>20191218</v>
+      </c>
+      <c r="C19">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="D19">
+        <v>38.08333333333334</v>
+      </c>
+      <c r="E19">
+        <v>1.095833333333333</v>
+      </c>
+      <c r="F19">
+        <v>36.16666666666666</v>
+      </c>
+      <c r="G19">
+        <v>40.66666666666666</v>
+      </c>
+      <c r="H19">
+        <v>28</v>
+      </c>
+      <c r="I19">
+        <v>56.70833333333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>20191219</v>
+      </c>
+      <c r="C20">
+        <v>6.041666666666667</v>
+      </c>
+      <c r="D20">
+        <v>41.375</v>
+      </c>
+      <c r="E20">
+        <v>1.2</v>
+      </c>
+      <c r="F20">
+        <v>63.41666666666666</v>
+      </c>
+      <c r="G20">
+        <v>53.83333333333334</v>
+      </c>
+      <c r="H20">
+        <v>26</v>
+      </c>
+      <c r="I20">
+        <v>73.625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>20191220</v>
+      </c>
+      <c r="C21">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="D21">
+        <v>42.70833333333334</v>
+      </c>
+      <c r="E21">
+        <v>1.310833333333333</v>
+      </c>
+      <c r="F21">
+        <v>60.45833333333334</v>
+      </c>
+      <c r="G21">
+        <v>58.45833333333334</v>
+      </c>
+      <c r="H21">
+        <v>28</v>
+      </c>
+      <c r="I21">
+        <v>79.83333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>20191221</v>
+      </c>
+      <c r="C22">
+        <v>7.541666666666667</v>
+      </c>
+      <c r="D22">
+        <v>43.70833333333334</v>
+      </c>
+      <c r="E22">
+        <v>1.457083333333333</v>
+      </c>
+      <c r="F22">
+        <v>68.29166666666667</v>
+      </c>
+      <c r="G22">
+        <v>64.66666666666667</v>
+      </c>
+      <c r="H22">
+        <v>35</v>
+      </c>
+      <c r="I22">
+        <v>87.125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>20191222</v>
+      </c>
+      <c r="C23">
+        <v>7.625</v>
+      </c>
+      <c r="D23">
+        <v>48.33333333333334</v>
+      </c>
+      <c r="E23">
+        <v>1.458333333333333</v>
+      </c>
+      <c r="F23">
+        <v>64.625</v>
+      </c>
+      <c r="G23">
+        <v>64.79166666666667</v>
+      </c>
+      <c r="H23">
+        <v>32</v>
+      </c>
+      <c r="I23">
+        <v>87.41666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>20191223</v>
+      </c>
+      <c r="C24">
+        <v>7.541666666666667</v>
+      </c>
+      <c r="D24">
+        <v>43.58333333333334</v>
+      </c>
+      <c r="E24">
+        <v>1.214166666666667</v>
+      </c>
+      <c r="F24">
+        <v>50.33333333333334</v>
+      </c>
+      <c r="G24">
+        <v>56.375</v>
+      </c>
+      <c r="H24">
+        <v>33</v>
+      </c>
+      <c r="I24">
+        <v>76.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>20191224</v>
+      </c>
+      <c r="C25">
+        <v>9.958333333333334</v>
+      </c>
+      <c r="D25">
+        <v>41.29166666666666</v>
+      </c>
+      <c r="E25">
+        <v>1.2625</v>
+      </c>
+      <c r="F25">
+        <v>48.25</v>
+      </c>
+      <c r="G25">
+        <v>56.625</v>
+      </c>
+      <c r="H25">
+        <v>29</v>
+      </c>
+      <c r="I25">
+        <v>77.08333333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>20191225</v>
+      </c>
+      <c r="C26">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="D26">
+        <v>44.20833333333334</v>
+      </c>
+      <c r="E26">
+        <v>1.226666666666667</v>
+      </c>
+      <c r="F26">
+        <v>47</v>
+      </c>
+      <c r="G26">
+        <v>38.70833333333334</v>
+      </c>
+      <c r="H26">
+        <v>32</v>
+      </c>
+      <c r="I26">
+        <v>53.70833333333334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>20191226</v>
+      </c>
+      <c r="C27">
+        <v>7.375</v>
+      </c>
+      <c r="D27">
+        <v>51.875</v>
+      </c>
+      <c r="E27">
+        <v>1.760833333333333</v>
+      </c>
+      <c r="F27">
+        <v>97.83333333333331</v>
+      </c>
+      <c r="G27">
+        <v>83.5</v>
+      </c>
+      <c r="H27">
+        <v>26</v>
+      </c>
+      <c r="I27">
+        <v>111.1666666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>20191227</v>
+      </c>
+      <c r="C28">
+        <v>8.458333333333334</v>
+      </c>
+      <c r="D28">
+        <v>56.29166666666666</v>
+      </c>
+      <c r="E28">
+        <v>2.019166666666667</v>
+      </c>
+      <c r="F28">
+        <v>137.2916666666667</v>
+      </c>
+      <c r="G28">
+        <v>117.5416666666667</v>
+      </c>
+      <c r="H28">
+        <v>28</v>
+      </c>
+      <c r="I28">
+        <v>154.7083333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>20191228</v>
+      </c>
+      <c r="C29">
+        <v>8.833333333333334</v>
+      </c>
+      <c r="D29">
+        <v>67.54166666666667</v>
+      </c>
+      <c r="E29">
+        <v>2.265416666666666</v>
+      </c>
+      <c r="F29">
+        <v>138.0833333333333</v>
+      </c>
+      <c r="G29">
+        <v>124.8333333333333</v>
+      </c>
+      <c r="H29">
+        <v>24</v>
+      </c>
+      <c r="I29">
+        <v>162.0416666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>20191229</v>
+      </c>
+      <c r="C30">
+        <v>8.875</v>
+      </c>
+      <c r="D30">
+        <v>66.625</v>
+      </c>
+      <c r="E30">
+        <v>2.3</v>
+      </c>
+      <c r="F30">
+        <v>189.2916666666666</v>
+      </c>
+      <c r="G30">
+        <v>180.1666666666666</v>
+      </c>
+      <c r="H30">
+        <v>22</v>
+      </c>
+      <c r="I30">
+        <v>230.1666666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>20191230</v>
+      </c>
+      <c r="C31">
+        <v>8.833333333333334</v>
+      </c>
+      <c r="D31">
+        <v>66.29166666666667</v>
+      </c>
+      <c r="E31">
+        <v>2.020833333333333</v>
+      </c>
+      <c r="F31">
+        <v>140.875</v>
+      </c>
+      <c r="G31">
+        <v>140.2916666666667</v>
+      </c>
+      <c r="H31">
+        <v>26</v>
+      </c>
+      <c r="I31">
+        <v>185.6666666666666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>20191231</v>
+      </c>
+      <c r="C32">
+        <v>10.125</v>
+      </c>
+      <c r="D32">
+        <v>71.66666666666667</v>
+      </c>
+      <c r="E32">
+        <v>1.957916666666667</v>
+      </c>
+      <c r="F32">
+        <v>121.1666666666667</v>
+      </c>
+      <c r="G32">
+        <v>112.8333333333333</v>
+      </c>
+      <c r="H32">
+        <v>24</v>
+      </c>
+      <c r="I32">
+        <v>148.2916666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>20200101</v>
+      </c>
+      <c r="C33">
+        <v>9.5</v>
+      </c>
+      <c r="D33">
+        <v>68.04166666666667</v>
+      </c>
+      <c r="E33">
+        <v>1.871666666666667</v>
+      </c>
+      <c r="F33">
+        <v>107.4166666666667</v>
+      </c>
+      <c r="G33">
+        <v>118.7083333333333</v>
+      </c>
+      <c r="H33">
+        <v>31</v>
+      </c>
+      <c r="I33">
+        <v>156.625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>20200102</v>
+      </c>
+      <c r="C34">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="D34">
+        <v>65.29166666666667</v>
+      </c>
+      <c r="E34">
+        <v>1.841666666666667</v>
+      </c>
+      <c r="F34">
+        <v>92.83333333333331</v>
+      </c>
+      <c r="G34">
+        <v>112.4583333333333</v>
+      </c>
+      <c r="H34">
+        <v>26</v>
+      </c>
+      <c r="I34">
+        <v>147.5833333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>20200103</v>
+      </c>
+      <c r="C35">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="D35">
+        <v>58.83333333333334</v>
+      </c>
+      <c r="E35">
+        <v>1.544166666666667</v>
+      </c>
+      <c r="F35">
+        <v>90.04166666666667</v>
+      </c>
+      <c r="G35">
+        <v>104.7916666666667</v>
+      </c>
+      <c r="H35">
+        <v>30</v>
+      </c>
+      <c r="I35">
+        <v>137.2916666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>20200104</v>
+      </c>
+      <c r="C36">
+        <v>8.083333333333334</v>
+      </c>
+      <c r="D36">
+        <v>67.16666666666667</v>
+      </c>
+      <c r="E36">
+        <v>1.766666666666667</v>
+      </c>
+      <c r="F36">
+        <v>101</v>
+      </c>
+      <c r="G36">
+        <v>115.125</v>
+      </c>
+      <c r="H36">
+        <v>31</v>
+      </c>
+      <c r="I36">
+        <v>151.875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>20200105</v>
+      </c>
+      <c r="C37">
+        <v>8.958333333333334</v>
+      </c>
+      <c r="D37">
+        <v>74.125</v>
+      </c>
+      <c r="E37">
+        <v>1.81125</v>
+      </c>
+      <c r="F37">
+        <v>134.7083333333333</v>
+      </c>
+      <c r="G37">
+        <v>108.7083333333333</v>
+      </c>
+      <c r="H37">
+        <v>26</v>
+      </c>
+      <c r="I37">
+        <v>143.4583333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>20200106</v>
+      </c>
+      <c r="C38">
+        <v>8.791666666666666</v>
+      </c>
+      <c r="D38">
+        <v>71.29166666666667</v>
+      </c>
+      <c r="E38">
+        <v>2.090833333333333</v>
+      </c>
+      <c r="F38">
+        <v>167.25</v>
+      </c>
+      <c r="G38">
+        <v>184.8333333333333</v>
+      </c>
+      <c r="H38">
+        <v>30</v>
+      </c>
+      <c r="I38">
+        <v>234.8333333333333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>20200107</v>
+      </c>
+      <c r="C39">
+        <v>8.625</v>
+      </c>
+      <c r="D39">
+        <v>83.20833333333333</v>
+      </c>
+      <c r="E39">
+        <v>2.409583333333333</v>
+      </c>
+      <c r="F39">
+        <v>129.7916666666667</v>
+      </c>
+      <c r="G39">
+        <v>152.0416666666667</v>
+      </c>
+      <c r="H39">
+        <v>23</v>
+      </c>
+      <c r="I39">
+        <v>195.0416666666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>20200108</v>
+      </c>
+      <c r="C40">
+        <v>10.75</v>
+      </c>
+      <c r="D40">
+        <v>88.625</v>
+      </c>
+      <c r="E40">
+        <v>2.768333333333333</v>
+      </c>
+      <c r="F40">
+        <v>180.7083333333333</v>
+      </c>
+      <c r="G40">
+        <v>209.5416666666666</v>
+      </c>
+      <c r="H40">
+        <v>21</v>
+      </c>
+      <c r="I40">
+        <v>259.2916666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>20200109</v>
+      </c>
+      <c r="C41">
+        <v>10.625</v>
+      </c>
+      <c r="D41">
+        <v>80.08333333333333</v>
+      </c>
+      <c r="E41">
+        <v>2.554583333333333</v>
+      </c>
+      <c r="F41">
+        <v>178.625</v>
+      </c>
+      <c r="G41">
+        <v>174.125</v>
+      </c>
+      <c r="H41">
+        <v>26</v>
+      </c>
+      <c r="I41">
+        <v>219.5416666666666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>20200110</v>
+      </c>
+      <c r="C42">
+        <v>11.33333333333333</v>
+      </c>
+      <c r="D42">
+        <v>70</v>
+      </c>
+      <c r="E42">
+        <v>2.305833333333334</v>
+      </c>
+      <c r="F42">
+        <v>210</v>
+      </c>
+      <c r="G42">
+        <v>206.2083333333333</v>
+      </c>
+      <c r="H42">
+        <v>34</v>
+      </c>
+      <c r="I42">
+        <v>253.1666666666666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>20200111</v>
+      </c>
+      <c r="C43">
+        <v>6.791666666666667</v>
+      </c>
+      <c r="D43">
+        <v>71.95833333333333</v>
+      </c>
+      <c r="E43">
+        <v>1.662916666666667</v>
+      </c>
+      <c r="F43">
+        <v>89.625</v>
+      </c>
+      <c r="G43">
+        <v>100.25</v>
+      </c>
+      <c r="H43">
+        <v>36</v>
+      </c>
+      <c r="I43">
+        <v>132.1666666666667</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>20200112</v>
+      </c>
+      <c r="C44">
+        <v>9.125</v>
+      </c>
+      <c r="D44">
+        <v>67.33333333333333</v>
+      </c>
+      <c r="E44">
+        <v>2.250416666666667</v>
+      </c>
+      <c r="F44">
+        <v>222.125</v>
+      </c>
+      <c r="G44">
+        <v>213.75</v>
+      </c>
+      <c r="H44">
+        <v>40</v>
+      </c>
+      <c r="I44">
+        <v>263.625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>20200113</v>
+      </c>
+      <c r="C45">
+        <v>8.208333333333334</v>
+      </c>
+      <c r="D45">
+        <v>76.83333333333333</v>
+      </c>
+      <c r="E45">
+        <v>2.185416666666667</v>
+      </c>
+      <c r="F45">
+        <v>133.2083333333333</v>
+      </c>
+      <c r="G45">
+        <v>145.5833333333333</v>
+      </c>
+      <c r="H45">
+        <v>31</v>
+      </c>
+      <c r="I45">
+        <v>188.1666666666666</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>20200114</v>
+      </c>
+      <c r="C46">
+        <v>11.375</v>
+      </c>
+      <c r="D46">
+        <v>72.33333333333333</v>
+      </c>
+      <c r="E46">
+        <v>2.135416666666667</v>
+      </c>
+      <c r="F46">
+        <v>140.4166666666667</v>
+      </c>
+      <c r="G46">
+        <v>154</v>
+      </c>
+      <c r="H46">
+        <v>32</v>
+      </c>
+      <c r="I46">
+        <v>200.4583333333333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>20200115</v>
+      </c>
+      <c r="C47">
+        <v>8.625</v>
+      </c>
+      <c r="D47">
+        <v>62.91666666666666</v>
+      </c>
+      <c r="E47">
+        <v>1.735833333333334</v>
+      </c>
+      <c r="F47">
+        <v>83.75</v>
+      </c>
+      <c r="G47">
+        <v>109.7083333333333</v>
+      </c>
+      <c r="H47">
+        <v>40</v>
+      </c>
+      <c r="I47">
+        <v>144.8333333333333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>20200116</v>
+      </c>
+      <c r="C48">
+        <v>9.208333333333334</v>
+      </c>
+      <c r="D48">
+        <v>57.75</v>
+      </c>
+      <c r="E48">
+        <v>1.7225</v>
+      </c>
+      <c r="F48">
+        <v>141.375</v>
+      </c>
+      <c r="G48">
+        <v>148.125</v>
+      </c>
+      <c r="H48">
+        <v>43</v>
+      </c>
+      <c r="I48">
+        <v>193.2083333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>20200117</v>
+      </c>
+      <c r="C49">
+        <v>12.29166666666667</v>
+      </c>
+      <c r="D49">
+        <v>54.70833333333334</v>
+      </c>
+      <c r="E49">
+        <v>1.470833333333333</v>
+      </c>
+      <c r="F49">
+        <v>80.08333333333333</v>
+      </c>
+      <c r="G49">
+        <v>96.5</v>
+      </c>
+      <c r="H49">
+        <v>44</v>
+      </c>
+      <c r="I49">
+        <v>128.0416666666667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>20200118</v>
+      </c>
+      <c r="C50">
+        <v>6.833333333333333</v>
+      </c>
+      <c r="D50">
+        <v>57.20833333333334</v>
+      </c>
+      <c r="E50">
+        <v>1.257083333333333</v>
+      </c>
+      <c r="F50">
+        <v>54.95833333333334</v>
+      </c>
+      <c r="G50">
+        <v>53.08333333333334</v>
+      </c>
+      <c r="H50">
+        <v>49</v>
+      </c>
+      <c r="I50">
+        <v>74.16666666666667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>20200119</v>
+      </c>
+      <c r="C51">
+        <v>8.666666666666666</v>
+      </c>
+      <c r="D51">
+        <v>63.16666666666666</v>
+      </c>
+      <c r="E51">
+        <v>1.707916666666667</v>
+      </c>
+      <c r="F51">
+        <v>91.91666666666669</v>
+      </c>
+      <c r="G51">
+        <v>93.16666666666669</v>
+      </c>
+      <c r="H51">
+        <v>44</v>
+      </c>
+      <c r="I51">
+        <v>124.625</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>20200120</v>
+      </c>
+      <c r="C52">
+        <v>8.625</v>
+      </c>
+      <c r="D52">
+        <v>71.625</v>
+      </c>
+      <c r="E52">
+        <v>1.73875</v>
+      </c>
+      <c r="F52">
+        <v>89.79166666666667</v>
+      </c>
+      <c r="G52">
+        <v>96.625</v>
+      </c>
+      <c r="H52">
+        <v>50</v>
+      </c>
+      <c r="I52">
+        <v>127.125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>20200121</v>
+      </c>
+      <c r="C53">
+        <v>8.5</v>
+      </c>
+      <c r="D53">
+        <v>82.41666666666667</v>
+      </c>
+      <c r="E53">
+        <v>2.12625</v>
+      </c>
+      <c r="F53">
+        <v>161.5416666666667</v>
+      </c>
+      <c r="G53">
+        <v>154.9166666666667</v>
+      </c>
+      <c r="H53">
+        <v>39</v>
+      </c>
+      <c r="I53">
+        <v>201.8333333333333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>20200122</v>
+      </c>
+      <c r="C54">
+        <v>7.052631578947368</v>
+      </c>
+      <c r="D54">
+        <v>78.47368421052632</v>
+      </c>
+      <c r="E54">
+        <v>1.981052631578948</v>
+      </c>
+      <c r="F54">
+        <v>140.0526315789474</v>
+      </c>
+      <c r="G54">
+        <v>147.6842105263158</v>
+      </c>
+      <c r="H54">
+        <v>41</v>
+      </c>
+      <c r="I54">
+        <v>190.421052631579</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>20200123</v>
+      </c>
+      <c r="C55">
+        <v>6.375</v>
+      </c>
+      <c r="D55">
+        <v>78.125</v>
+      </c>
+      <c r="E55">
+        <v>2.00125</v>
+      </c>
+      <c r="F55">
+        <v>142.5</v>
+      </c>
+      <c r="G55">
+        <v>150.75</v>
+      </c>
+      <c r="H55">
+        <v>38</v>
+      </c>
+      <c r="I55">
+        <v>194.875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>20200124</v>
+      </c>
+      <c r="C56">
+        <v>8.625</v>
+      </c>
+      <c r="D56">
+        <v>64.66666666666667</v>
+      </c>
+      <c r="E56">
+        <v>2.087083333333333</v>
+      </c>
+      <c r="F56">
+        <v>165.375</v>
+      </c>
+      <c r="G56">
+        <v>170.7083333333333</v>
+      </c>
+      <c r="H56">
+        <v>60</v>
+      </c>
+      <c r="I56">
+        <v>217.0416666666666</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>20200125</v>
+      </c>
+      <c r="C57">
+        <v>15.33333333333333</v>
+      </c>
+      <c r="D57">
+        <v>46.75</v>
+      </c>
+      <c r="E57">
+        <v>1.560416666666667</v>
+      </c>
+      <c r="F57">
+        <v>109</v>
+      </c>
+      <c r="G57">
+        <v>117.75</v>
+      </c>
+      <c r="H57">
+        <v>72</v>
+      </c>
+      <c r="I57">
+        <v>154.7916666666667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>20200126</v>
+      </c>
+      <c r="C58">
+        <v>12.83333333333333</v>
+      </c>
+      <c r="D58">
+        <v>58.79166666666666</v>
+      </c>
+      <c r="E58">
+        <v>1.70875</v>
+      </c>
+      <c r="F58">
+        <v>85.45833333333333</v>
+      </c>
+      <c r="G58">
+        <v>96.79166666666669</v>
+      </c>
+      <c r="H58">
+        <v>61</v>
+      </c>
+      <c r="I58">
+        <v>127.625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>20200127</v>
+      </c>
+      <c r="C59">
+        <v>8.041666666666666</v>
+      </c>
+      <c r="D59">
+        <v>61.58333333333334</v>
+      </c>
+      <c r="E59">
+        <v>1.729583333333333</v>
+      </c>
+      <c r="F59">
+        <v>68.29166666666667</v>
+      </c>
+      <c r="G59">
+        <v>110.375</v>
+      </c>
+      <c r="H59">
+        <v>64</v>
+      </c>
+      <c r="I59">
+        <v>146.1666666666667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>20200128</v>
+      </c>
+      <c r="C60">
+        <v>8.125</v>
+      </c>
+      <c r="D60">
+        <v>54.16666666666666</v>
+      </c>
+      <c r="E60">
+        <v>1.689583333333333</v>
+      </c>
+      <c r="F60">
+        <v>92.83333333333331</v>
+      </c>
+      <c r="G60">
+        <v>109.7083333333333</v>
+      </c>
+      <c r="H60">
+        <v>78</v>
+      </c>
+      <c r="I60">
+        <v>143.7916666666667</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>20200129</v>
+      </c>
+      <c r="C61">
+        <v>7.916666666666667</v>
+      </c>
+      <c r="D61">
+        <v>38.75</v>
+      </c>
+      <c r="E61">
+        <v>1.52875</v>
+      </c>
+      <c r="F61">
+        <v>86.45833333333333</v>
+      </c>
+      <c r="G61">
+        <v>87.58333333333333</v>
+      </c>
+      <c r="H61">
+        <v>76</v>
+      </c>
+      <c r="I61">
+        <v>116.3333333333333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>20200130</v>
+      </c>
+      <c r="C62">
+        <v>6.833333333333333</v>
+      </c>
+      <c r="D62">
+        <v>55.5</v>
+      </c>
+      <c r="E62">
+        <v>1.972916666666667</v>
+      </c>
+      <c r="F62">
+        <v>112.2916666666667</v>
+      </c>
+      <c r="G62">
+        <v>125.4583333333333</v>
+      </c>
+      <c r="H62">
+        <v>61</v>
+      </c>
+      <c r="I62">
+        <v>164.875</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>20200131</v>
+      </c>
+      <c r="C63">
+        <v>7.5</v>
+      </c>
+      <c r="D63">
+        <v>41.66666666666666</v>
+      </c>
+      <c r="E63">
+        <v>1.678333333333334</v>
+      </c>
+      <c r="F63">
+        <v>106.8333333333333</v>
+      </c>
+      <c r="G63">
+        <v>116.375</v>
+      </c>
+      <c r="H63">
+        <v>62</v>
+      </c>
+      <c r="I63">
+        <v>152.6666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -442,7 +2243,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -477,6 +2278,2616 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>20200201</v>
+      </c>
+      <c r="C2">
+        <v>8.958333333333334</v>
+      </c>
+      <c r="D2">
+        <v>49.70833333333334</v>
+      </c>
+      <c r="E2">
+        <v>1.793333333333333</v>
+      </c>
+      <c r="F2">
+        <v>131.0833333333333</v>
+      </c>
+      <c r="G2">
+        <v>133.7916666666667</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>175.3333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>20200202</v>
+      </c>
+      <c r="C3">
+        <v>9.125</v>
+      </c>
+      <c r="D3">
+        <v>49.25</v>
+      </c>
+      <c r="E3">
+        <v>1.786666666666667</v>
+      </c>
+      <c r="F3">
+        <v>130.1666666666667</v>
+      </c>
+      <c r="G3">
+        <v>124.2083333333333</v>
+      </c>
+      <c r="H3">
+        <v>68</v>
+      </c>
+      <c r="I3">
+        <v>163.6666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>20200203</v>
+      </c>
+      <c r="C4">
+        <v>8.25</v>
+      </c>
+      <c r="D4">
+        <v>62.20833333333334</v>
+      </c>
+      <c r="E4">
+        <v>1.875833333333333</v>
+      </c>
+      <c r="F4">
+        <v>99.375</v>
+      </c>
+      <c r="G4">
+        <v>100.0416666666667</v>
+      </c>
+      <c r="H4">
+        <v>63</v>
+      </c>
+      <c r="I4">
+        <v>132.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>20200204</v>
+      </c>
+      <c r="C5">
+        <v>10.5</v>
+      </c>
+      <c r="D5">
+        <v>67.25</v>
+      </c>
+      <c r="E5">
+        <v>2.1425</v>
+      </c>
+      <c r="F5">
+        <v>144.625</v>
+      </c>
+      <c r="G5">
+        <v>153.6666666666667</v>
+      </c>
+      <c r="H5">
+        <v>63</v>
+      </c>
+      <c r="I5">
+        <v>200.4166666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>20200205</v>
+      </c>
+      <c r="C6">
+        <v>10.79166666666667</v>
+      </c>
+      <c r="D6">
+        <v>69.04166666666667</v>
+      </c>
+      <c r="E6">
+        <v>2.54375</v>
+      </c>
+      <c r="F6">
+        <v>192.1666666666666</v>
+      </c>
+      <c r="G6">
+        <v>208.9583333333333</v>
+      </c>
+      <c r="H6">
+        <v>62</v>
+      </c>
+      <c r="I6">
+        <v>258.9583333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>20200206</v>
+      </c>
+      <c r="C7">
+        <v>9.208333333333334</v>
+      </c>
+      <c r="D7">
+        <v>67.83333333333333</v>
+      </c>
+      <c r="E7">
+        <v>2.222916666666667</v>
+      </c>
+      <c r="F7">
+        <v>131.625</v>
+      </c>
+      <c r="G7">
+        <v>153.625</v>
+      </c>
+      <c r="H7">
+        <v>80</v>
+      </c>
+      <c r="I7">
+        <v>197.9583333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>20200207</v>
+      </c>
+      <c r="C8">
+        <v>11.33333333333333</v>
+      </c>
+      <c r="D8">
+        <v>61.25</v>
+      </c>
+      <c r="E8">
+        <v>1.89</v>
+      </c>
+      <c r="F8">
+        <v>136.5</v>
+      </c>
+      <c r="G8">
+        <v>128.8333333333333</v>
+      </c>
+      <c r="H8">
+        <v>91</v>
+      </c>
+      <c r="I8">
+        <v>165.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>20200208</v>
+      </c>
+      <c r="C9">
+        <v>14.75</v>
+      </c>
+      <c r="D9">
+        <v>54.79166666666666</v>
+      </c>
+      <c r="E9">
+        <v>2.412083333333333</v>
+      </c>
+      <c r="F9">
+        <v>235.75</v>
+      </c>
+      <c r="G9">
+        <v>233.25</v>
+      </c>
+      <c r="H9">
+        <v>106</v>
+      </c>
+      <c r="I9">
+        <v>283.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>20200209</v>
+      </c>
+      <c r="C10">
+        <v>12.75</v>
+      </c>
+      <c r="D10">
+        <v>31.875</v>
+      </c>
+      <c r="E10">
+        <v>1.4525</v>
+      </c>
+      <c r="F10">
+        <v>123.4166666666667</v>
+      </c>
+      <c r="G10">
+        <v>101.3333333333333</v>
+      </c>
+      <c r="H10">
+        <v>114</v>
+      </c>
+      <c r="I10">
+        <v>133.5833333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>20200210</v>
+      </c>
+      <c r="C11">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="D11">
+        <v>34.875</v>
+      </c>
+      <c r="E11">
+        <v>1.359166666666667</v>
+      </c>
+      <c r="F11">
+        <v>69.04166666666667</v>
+      </c>
+      <c r="G11">
+        <v>65.29166666666667</v>
+      </c>
+      <c r="H11">
+        <v>117</v>
+      </c>
+      <c r="I11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>20200211</v>
+      </c>
+      <c r="C12">
+        <v>13.41666666666667</v>
+      </c>
+      <c r="D12">
+        <v>32.25</v>
+      </c>
+      <c r="E12">
+        <v>1.532083333333334</v>
+      </c>
+      <c r="F12">
+        <v>91.375</v>
+      </c>
+      <c r="G12">
+        <v>94.5</v>
+      </c>
+      <c r="H12">
+        <v>138</v>
+      </c>
+      <c r="I12">
+        <v>125.2916666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>20200212</v>
+      </c>
+      <c r="C13">
+        <v>7.583333333333333</v>
+      </c>
+      <c r="D13">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="E13">
+        <v>0.9295833333333332</v>
+      </c>
+      <c r="F13">
+        <v>37.5</v>
+      </c>
+      <c r="G13">
+        <v>39.25</v>
+      </c>
+      <c r="H13">
+        <v>138</v>
+      </c>
+      <c r="I13">
+        <v>54.66666666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>20200213</v>
+      </c>
+      <c r="C14">
+        <v>7.75</v>
+      </c>
+      <c r="D14">
+        <v>31.91666666666667</v>
+      </c>
+      <c r="E14">
+        <v>0.9741666666666666</v>
+      </c>
+      <c r="F14">
+        <v>25.08333333333333</v>
+      </c>
+      <c r="G14">
+        <v>26.08333333333333</v>
+      </c>
+      <c r="H14">
+        <v>74</v>
+      </c>
+      <c r="I14">
+        <v>37.41666666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>20200214</v>
+      </c>
+      <c r="C15">
+        <v>7.875</v>
+      </c>
+      <c r="D15">
+        <v>27.45833333333333</v>
+      </c>
+      <c r="E15">
+        <v>1.024166666666667</v>
+      </c>
+      <c r="F15">
+        <v>40.41666666666666</v>
+      </c>
+      <c r="G15">
+        <v>40.20833333333334</v>
+      </c>
+      <c r="H15">
+        <v>79</v>
+      </c>
+      <c r="I15">
+        <v>56.16666666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>20200215</v>
+      </c>
+      <c r="C16">
+        <v>8.458333333333334</v>
+      </c>
+      <c r="D16">
+        <v>38.5</v>
+      </c>
+      <c r="E16">
+        <v>1.31375</v>
+      </c>
+      <c r="F16">
+        <v>68.625</v>
+      </c>
+      <c r="G16">
+        <v>72.20833333333333</v>
+      </c>
+      <c r="H16">
+        <v>84</v>
+      </c>
+      <c r="I16">
+        <v>96.66666666666669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>20200216</v>
+      </c>
+      <c r="C17">
+        <v>7.375</v>
+      </c>
+      <c r="D17">
+        <v>33.91666666666666</v>
+      </c>
+      <c r="E17">
+        <v>1.21625</v>
+      </c>
+      <c r="F17">
+        <v>68.125</v>
+      </c>
+      <c r="G17">
+        <v>61.25</v>
+      </c>
+      <c r="H17">
+        <v>87</v>
+      </c>
+      <c r="I17">
+        <v>83.08333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>20200217</v>
+      </c>
+      <c r="C18">
+        <v>9.875</v>
+      </c>
+      <c r="D18">
+        <v>39.5</v>
+      </c>
+      <c r="E18">
+        <v>1.1775</v>
+      </c>
+      <c r="F18">
+        <v>61.79166666666666</v>
+      </c>
+      <c r="G18">
+        <v>44.54166666666666</v>
+      </c>
+      <c r="H18">
+        <v>87</v>
+      </c>
+      <c r="I18">
+        <v>62.875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>20200218</v>
+      </c>
+      <c r="C19">
+        <v>8.375</v>
+      </c>
+      <c r="D19">
+        <v>28.625</v>
+      </c>
+      <c r="E19">
+        <v>1.257916666666667</v>
+      </c>
+      <c r="F19">
+        <v>94.25</v>
+      </c>
+      <c r="G19">
+        <v>79.83333333333333</v>
+      </c>
+      <c r="H19">
+        <v>86</v>
+      </c>
+      <c r="I19">
+        <v>106.2916666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>20200219</v>
+      </c>
+      <c r="C20">
+        <v>7.958333333333333</v>
+      </c>
+      <c r="D20">
+        <v>22.04166666666667</v>
+      </c>
+      <c r="E20">
+        <v>0.9183333333333332</v>
+      </c>
+      <c r="F20">
+        <v>37.625</v>
+      </c>
+      <c r="G20">
+        <v>44.125</v>
+      </c>
+      <c r="H20">
+        <v>79</v>
+      </c>
+      <c r="I20">
+        <v>61.125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>20200220</v>
+      </c>
+      <c r="C21">
+        <v>7.958333333333333</v>
+      </c>
+      <c r="D21">
+        <v>33.33333333333334</v>
+      </c>
+      <c r="E21">
+        <v>0.93875</v>
+      </c>
+      <c r="F21">
+        <v>24.25</v>
+      </c>
+      <c r="G21">
+        <v>31.41666666666667</v>
+      </c>
+      <c r="H21">
+        <v>85</v>
+      </c>
+      <c r="I21">
+        <v>44.79166666666666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>20200221</v>
+      </c>
+      <c r="C22">
+        <v>7.583333333333333</v>
+      </c>
+      <c r="D22">
+        <v>31.25</v>
+      </c>
+      <c r="E22">
+        <v>1.003333333333333</v>
+      </c>
+      <c r="F22">
+        <v>48.33333333333334</v>
+      </c>
+      <c r="G22">
+        <v>54.04166666666666</v>
+      </c>
+      <c r="H22">
+        <v>81</v>
+      </c>
+      <c r="I22">
+        <v>73.91666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>20200222</v>
+      </c>
+      <c r="C23">
+        <v>8.375</v>
+      </c>
+      <c r="D23">
+        <v>31.125</v>
+      </c>
+      <c r="E23">
+        <v>1.045</v>
+      </c>
+      <c r="F23">
+        <v>53.08333333333334</v>
+      </c>
+      <c r="G23">
+        <v>57.625</v>
+      </c>
+      <c r="H23">
+        <v>82</v>
+      </c>
+      <c r="I23">
+        <v>78.58333333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>20200223</v>
+      </c>
+      <c r="C24">
+        <v>8.375</v>
+      </c>
+      <c r="D24">
+        <v>35.79166666666666</v>
+      </c>
+      <c r="E24">
+        <v>1.150416666666667</v>
+      </c>
+      <c r="F24">
+        <v>73.58333333333333</v>
+      </c>
+      <c r="G24">
+        <v>45.75</v>
+      </c>
+      <c r="H24">
+        <v>96</v>
+      </c>
+      <c r="I24">
+        <v>69.83333333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>20200224</v>
+      </c>
+      <c r="C25">
+        <v>11.41666666666667</v>
+      </c>
+      <c r="D25">
+        <v>27.45833333333333</v>
+      </c>
+      <c r="E25">
+        <v>1.040833333333333</v>
+      </c>
+      <c r="F25">
+        <v>49.66666666666666</v>
+      </c>
+      <c r="G25">
+        <v>49.04166666666666</v>
+      </c>
+      <c r="H25">
+        <v>95</v>
+      </c>
+      <c r="I25">
+        <v>67.66666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>20200225</v>
+      </c>
+      <c r="C26">
+        <v>6.458333333333333</v>
+      </c>
+      <c r="D26">
+        <v>20.5</v>
+      </c>
+      <c r="E26">
+        <v>1.0125</v>
+      </c>
+      <c r="F26">
+        <v>43.79166666666666</v>
+      </c>
+      <c r="G26">
+        <v>41.91666666666666</v>
+      </c>
+      <c r="H26">
+        <v>83</v>
+      </c>
+      <c r="I26">
+        <v>58.83333333333334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>20200226</v>
+      </c>
+      <c r="C27">
+        <v>6.625</v>
+      </c>
+      <c r="D27">
+        <v>31.33333333333333</v>
+      </c>
+      <c r="E27">
+        <v>1.182083333333333</v>
+      </c>
+      <c r="F27">
+        <v>51</v>
+      </c>
+      <c r="G27">
+        <v>48.20833333333334</v>
+      </c>
+      <c r="H27">
+        <v>66</v>
+      </c>
+      <c r="I27">
+        <v>66.54166666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>20200227</v>
+      </c>
+      <c r="C28">
+        <v>5.583333333333333</v>
+      </c>
+      <c r="D28">
+        <v>20.29166666666667</v>
+      </c>
+      <c r="E28">
+        <v>1.199166666666667</v>
+      </c>
+      <c r="F28">
+        <v>61.41666666666666</v>
+      </c>
+      <c r="G28">
+        <v>60.95833333333334</v>
+      </c>
+      <c r="H28">
+        <v>66</v>
+      </c>
+      <c r="I28">
+        <v>82.41666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>20200228</v>
+      </c>
+      <c r="C29">
+        <v>6.444444444444445</v>
+      </c>
+      <c r="D29">
+        <v>16.11111111111111</v>
+      </c>
+      <c r="E29">
+        <v>0.7983333333333333</v>
+      </c>
+      <c r="F29">
+        <v>20.55555555555556</v>
+      </c>
+      <c r="G29">
+        <v>23.05555555555556</v>
+      </c>
+      <c r="H29">
+        <v>71</v>
+      </c>
+      <c r="I29">
+        <v>32.94444444444444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>20200229</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>28.125</v>
+      </c>
+      <c r="E30">
+        <v>0.975</v>
+      </c>
+      <c r="F30">
+        <v>24.125</v>
+      </c>
+      <c r="G30">
+        <v>25.29166666666667</v>
+      </c>
+      <c r="H30">
+        <v>77</v>
+      </c>
+      <c r="I30">
+        <v>36.83333333333334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>20200301</v>
+      </c>
+      <c r="C31">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="D31">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>1.042916666666667</v>
+      </c>
+      <c r="F31">
+        <v>32.95833333333334</v>
+      </c>
+      <c r="G31">
+        <v>35.45833333333334</v>
+      </c>
+      <c r="H31">
+        <v>74</v>
+      </c>
+      <c r="I31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>20200302</v>
+      </c>
+      <c r="C32">
+        <v>6.833333333333333</v>
+      </c>
+      <c r="D32">
+        <v>35.08333333333334</v>
+      </c>
+      <c r="E32">
+        <v>1.23</v>
+      </c>
+      <c r="F32">
+        <v>72.625</v>
+      </c>
+      <c r="G32">
+        <v>76.625</v>
+      </c>
+      <c r="H32">
+        <v>66</v>
+      </c>
+      <c r="I32">
+        <v>102.1666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>20200303</v>
+      </c>
+      <c r="C33">
+        <v>8.333333333333334</v>
+      </c>
+      <c r="D33">
+        <v>29.75</v>
+      </c>
+      <c r="E33">
+        <v>1.245833333333333</v>
+      </c>
+      <c r="F33">
+        <v>87.875</v>
+      </c>
+      <c r="G33">
+        <v>83.58333333333333</v>
+      </c>
+      <c r="H33">
+        <v>81</v>
+      </c>
+      <c r="I33">
+        <v>110.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>20200304</v>
+      </c>
+      <c r="C34">
+        <v>8.5</v>
+      </c>
+      <c r="D34">
+        <v>20.33333333333333</v>
+      </c>
+      <c r="E34">
+        <v>1.067916666666667</v>
+      </c>
+      <c r="F34">
+        <v>58.95833333333334</v>
+      </c>
+      <c r="G34">
+        <v>58</v>
+      </c>
+      <c r="H34">
+        <v>79</v>
+      </c>
+      <c r="I34">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>20200305</v>
+      </c>
+      <c r="C35">
+        <v>6.958333333333333</v>
+      </c>
+      <c r="D35">
+        <v>21.95833333333333</v>
+      </c>
+      <c r="E35">
+        <v>0.80375</v>
+      </c>
+      <c r="F35">
+        <v>29.25</v>
+      </c>
+      <c r="G35">
+        <v>33.125</v>
+      </c>
+      <c r="H35">
+        <v>85</v>
+      </c>
+      <c r="I35">
+        <v>46.83333333333334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>20200306</v>
+      </c>
+      <c r="C36">
+        <v>9.5</v>
+      </c>
+      <c r="D36">
+        <v>24.95833333333333</v>
+      </c>
+      <c r="E36">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="F36">
+        <v>28.16666666666667</v>
+      </c>
+      <c r="G36">
+        <v>23.04166666666667</v>
+      </c>
+      <c r="H36">
+        <v>80</v>
+      </c>
+      <c r="I36">
+        <v>33.33333333333334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>20200307</v>
+      </c>
+      <c r="C37">
+        <v>6.458333333333333</v>
+      </c>
+      <c r="D37">
+        <v>14.45833333333333</v>
+      </c>
+      <c r="E37">
+        <v>0.6595833333333333</v>
+      </c>
+      <c r="F37">
+        <v>19.83333333333333</v>
+      </c>
+      <c r="G37">
+        <v>17.625</v>
+      </c>
+      <c r="H37">
+        <v>75</v>
+      </c>
+      <c r="I37">
+        <v>27.79166666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>20200308</v>
+      </c>
+      <c r="C38">
+        <v>6.083333333333333</v>
+      </c>
+      <c r="D38">
+        <v>16.5</v>
+      </c>
+      <c r="E38">
+        <v>0.6604166666666667</v>
+      </c>
+      <c r="F38">
+        <v>102</v>
+      </c>
+      <c r="G38">
+        <v>18.375</v>
+      </c>
+      <c r="H38">
+        <v>81</v>
+      </c>
+      <c r="I38">
+        <v>73.04166666666667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>20200309</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>40.75</v>
+      </c>
+      <c r="E39">
+        <v>0.91125</v>
+      </c>
+      <c r="F39">
+        <v>58.79166666666666</v>
+      </c>
+      <c r="G39">
+        <v>25.33333333333333</v>
+      </c>
+      <c r="H39">
+        <v>80</v>
+      </c>
+      <c r="I39">
+        <v>52.79166666666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>20200310</v>
+      </c>
+      <c r="C40">
+        <v>12.83333333333333</v>
+      </c>
+      <c r="D40">
+        <v>44.66666666666666</v>
+      </c>
+      <c r="E40">
+        <v>1.0675</v>
+      </c>
+      <c r="F40">
+        <v>59.25</v>
+      </c>
+      <c r="G40">
+        <v>34.33333333333334</v>
+      </c>
+      <c r="H40">
+        <v>75</v>
+      </c>
+      <c r="I40">
+        <v>55.875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>20200311</v>
+      </c>
+      <c r="C41">
+        <v>8.875</v>
+      </c>
+      <c r="D41">
+        <v>37.66666666666666</v>
+      </c>
+      <c r="E41">
+        <v>1.091666666666667</v>
+      </c>
+      <c r="F41">
+        <v>62.54166666666666</v>
+      </c>
+      <c r="G41">
+        <v>30.95833333333333</v>
+      </c>
+      <c r="H41">
+        <v>87</v>
+      </c>
+      <c r="I41">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>20200312</v>
+      </c>
+      <c r="C42">
+        <v>7.916666666666667</v>
+      </c>
+      <c r="D42">
+        <v>32.20833333333334</v>
+      </c>
+      <c r="E42">
+        <v>0.8270833333333334</v>
+      </c>
+      <c r="F42">
+        <v>35.375</v>
+      </c>
+      <c r="G42">
+        <v>24.16666666666667</v>
+      </c>
+      <c r="H42">
+        <v>83</v>
+      </c>
+      <c r="I42">
+        <v>38.375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>20200313</v>
+      </c>
+      <c r="C43">
+        <v>9.291666666666666</v>
+      </c>
+      <c r="D43">
+        <v>29.95833333333333</v>
+      </c>
+      <c r="E43">
+        <v>0.8108333333333334</v>
+      </c>
+      <c r="F43">
+        <v>51.70833333333334</v>
+      </c>
+      <c r="G43">
+        <v>21.20833333333333</v>
+      </c>
+      <c r="H43">
+        <v>75</v>
+      </c>
+      <c r="I43">
+        <v>49.16666666666666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>20200314</v>
+      </c>
+      <c r="C44">
+        <v>12.45833333333333</v>
+      </c>
+      <c r="D44">
+        <v>35.29166666666666</v>
+      </c>
+      <c r="E44">
+        <v>0.9183333333333332</v>
+      </c>
+      <c r="F44">
+        <v>72.375</v>
+      </c>
+      <c r="G44">
+        <v>31.375</v>
+      </c>
+      <c r="H44">
+        <v>82</v>
+      </c>
+      <c r="I44">
+        <v>60.70833333333334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>20200315</v>
+      </c>
+      <c r="C45">
+        <v>13.20833333333333</v>
+      </c>
+      <c r="D45">
+        <v>45.20833333333334</v>
+      </c>
+      <c r="E45">
+        <v>1.203333333333333</v>
+      </c>
+      <c r="F45">
+        <v>105.2916666666667</v>
+      </c>
+      <c r="G45">
+        <v>47.29166666666666</v>
+      </c>
+      <c r="H45">
+        <v>87</v>
+      </c>
+      <c r="I45">
+        <v>78.04166666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>20200316</v>
+      </c>
+      <c r="C46">
+        <v>12.33333333333333</v>
+      </c>
+      <c r="D46">
+        <v>48.45833333333334</v>
+      </c>
+      <c r="E46">
+        <v>1.117083333333333</v>
+      </c>
+      <c r="F46">
+        <v>104.125</v>
+      </c>
+      <c r="G46">
+        <v>50.16666666666666</v>
+      </c>
+      <c r="H46">
+        <v>100</v>
+      </c>
+      <c r="I46">
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>20200317</v>
+      </c>
+      <c r="C47">
+        <v>12.45833333333333</v>
+      </c>
+      <c r="D47">
+        <v>48.16666666666666</v>
+      </c>
+      <c r="E47">
+        <v>1.10875</v>
+      </c>
+      <c r="F47">
+        <v>123.125</v>
+      </c>
+      <c r="G47">
+        <v>48.25</v>
+      </c>
+      <c r="H47">
+        <v>105</v>
+      </c>
+      <c r="I47">
+        <v>86.79166666666667</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>20200318</v>
+      </c>
+      <c r="C48">
+        <v>9.571428571428571</v>
+      </c>
+      <c r="D48">
+        <v>47.09523809523809</v>
+      </c>
+      <c r="E48">
+        <v>1.004285714285714</v>
+      </c>
+      <c r="F48">
+        <v>80.04761904761905</v>
+      </c>
+      <c r="G48">
+        <v>32.80952380952381</v>
+      </c>
+      <c r="H48">
+        <v>89</v>
+      </c>
+      <c r="I48">
+        <v>65.23809523809524</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>20200319</v>
+      </c>
+      <c r="C49">
+        <v>10.83333333333333</v>
+      </c>
+      <c r="D49">
+        <v>40.25</v>
+      </c>
+      <c r="E49">
+        <v>0.9741666666666666</v>
+      </c>
+      <c r="F49">
+        <v>66.16666666666667</v>
+      </c>
+      <c r="G49">
+        <v>32.125</v>
+      </c>
+      <c r="H49">
+        <v>94</v>
+      </c>
+      <c r="I49">
+        <v>57.04166666666666</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>20200320</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>25.91666666666667</v>
+      </c>
+      <c r="E50">
+        <v>0.8279166666666667</v>
+      </c>
+      <c r="F50">
+        <v>31.54166666666667</v>
+      </c>
+      <c r="G50">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="H50">
+        <v>75</v>
+      </c>
+      <c r="I50">
+        <v>33.16666666666666</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>20200321</v>
+      </c>
+      <c r="C51">
+        <v>8.166666666666666</v>
+      </c>
+      <c r="D51">
+        <v>25.625</v>
+      </c>
+      <c r="E51">
+        <v>0.7933333333333333</v>
+      </c>
+      <c r="F51">
+        <v>24.375</v>
+      </c>
+      <c r="G51">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="H51">
+        <v>84</v>
+      </c>
+      <c r="I51">
+        <v>31.16666666666667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>20200322</v>
+      </c>
+      <c r="C52">
+        <v>8.666666666666666</v>
+      </c>
+      <c r="D52">
+        <v>31.04166666666667</v>
+      </c>
+      <c r="E52">
+        <v>0.8441666666666667</v>
+      </c>
+      <c r="F52">
+        <v>34.83333333333334</v>
+      </c>
+      <c r="G52">
+        <v>23.66666666666667</v>
+      </c>
+      <c r="H52">
+        <v>86</v>
+      </c>
+      <c r="I52">
+        <v>37.45833333333334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>20200323</v>
+      </c>
+      <c r="C53">
+        <v>10.70833333333333</v>
+      </c>
+      <c r="D53">
+        <v>32.875</v>
+      </c>
+      <c r="E53">
+        <v>0.9095833333333332</v>
+      </c>
+      <c r="F53">
+        <v>67.29166666666667</v>
+      </c>
+      <c r="G53">
+        <v>37.08333333333334</v>
+      </c>
+      <c r="H53">
+        <v>98</v>
+      </c>
+      <c r="I53">
+        <v>66.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>20200324</v>
+      </c>
+      <c r="C54">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="D54">
+        <v>13.125</v>
+      </c>
+      <c r="E54">
+        <v>0.6366666666666666</v>
+      </c>
+      <c r="F54">
+        <v>257.875</v>
+      </c>
+      <c r="G54">
+        <v>27.66666666666667</v>
+      </c>
+      <c r="H54">
+        <v>86</v>
+      </c>
+      <c r="I54">
+        <v>167.4166666666667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>20200325</v>
+      </c>
+      <c r="C55">
+        <v>7.875</v>
+      </c>
+      <c r="D55">
+        <v>13.83333333333333</v>
+      </c>
+      <c r="E55">
+        <v>0.6283333333333333</v>
+      </c>
+      <c r="F55">
+        <v>23.83333333333333</v>
+      </c>
+      <c r="G55">
+        <v>9.416666666666666</v>
+      </c>
+      <c r="H55">
+        <v>75</v>
+      </c>
+      <c r="I55">
+        <v>24.125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>20200326</v>
+      </c>
+      <c r="C56">
+        <v>7.833333333333333</v>
+      </c>
+      <c r="D56">
+        <v>19.58333333333333</v>
+      </c>
+      <c r="E56">
+        <v>0.6258333333333334</v>
+      </c>
+      <c r="F56">
+        <v>23.41666666666667</v>
+      </c>
+      <c r="G56">
+        <v>11.45833333333333</v>
+      </c>
+      <c r="H56">
+        <v>80</v>
+      </c>
+      <c r="I56">
+        <v>25.70833333333333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>20200327</v>
+      </c>
+      <c r="C57">
+        <v>9.25</v>
+      </c>
+      <c r="D57">
+        <v>30.91666666666667</v>
+      </c>
+      <c r="E57">
+        <v>0.7720833333333333</v>
+      </c>
+      <c r="F57">
+        <v>45.29166666666666</v>
+      </c>
+      <c r="G57">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="H57">
+        <v>80</v>
+      </c>
+      <c r="I57">
+        <v>44.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>20200328</v>
+      </c>
+      <c r="C58">
+        <v>10.875</v>
+      </c>
+      <c r="D58">
+        <v>39.16666666666666</v>
+      </c>
+      <c r="E58">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="F58">
+        <v>81.83333333333333</v>
+      </c>
+      <c r="G58">
+        <v>26.25</v>
+      </c>
+      <c r="H58">
+        <v>90</v>
+      </c>
+      <c r="I58">
+        <v>66.125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>20200329</v>
+      </c>
+      <c r="C59">
+        <v>8.541666666666666</v>
+      </c>
+      <c r="D59">
+        <v>37.625</v>
+      </c>
+      <c r="E59">
+        <v>1.009166666666666</v>
+      </c>
+      <c r="F59">
+        <v>68.58333333333333</v>
+      </c>
+      <c r="G59">
+        <v>24.45833333333333</v>
+      </c>
+      <c r="H59">
+        <v>78</v>
+      </c>
+      <c r="I59">
+        <v>56.29166666666666</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>20200330</v>
+      </c>
+      <c r="C60">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="D60">
+        <v>24.83333333333333</v>
+      </c>
+      <c r="E60">
+        <v>0.85</v>
+      </c>
+      <c r="F60">
+        <v>100.6666666666667</v>
+      </c>
+      <c r="G60">
+        <v>30.20833333333333</v>
+      </c>
+      <c r="H60">
+        <v>80</v>
+      </c>
+      <c r="I60">
+        <v>75.41666666666667</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>20200331</v>
+      </c>
+      <c r="C61">
+        <v>7.416666666666667</v>
+      </c>
+      <c r="D61">
+        <v>28.16666666666667</v>
+      </c>
+      <c r="E61">
+        <v>0.8520833333333333</v>
+      </c>
+      <c r="F61">
+        <v>62.75</v>
+      </c>
+      <c r="G61">
+        <v>20.75</v>
+      </c>
+      <c r="H61">
+        <v>95</v>
+      </c>
+      <c r="I61">
+        <v>56.16666666666666</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>20200401</v>
+      </c>
+      <c r="C62">
+        <v>6.625</v>
+      </c>
+      <c r="D62">
+        <v>13.08333333333333</v>
+      </c>
+      <c r="E62">
+        <v>0.6229166666666667</v>
+      </c>
+      <c r="F62">
+        <v>124.9583333333333</v>
+      </c>
+      <c r="G62">
+        <v>23.5</v>
+      </c>
+      <c r="H62">
+        <v>97</v>
+      </c>
+      <c r="I62">
+        <v>87.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>20200402</v>
+      </c>
+      <c r="C63">
+        <v>8.541666666666666</v>
+      </c>
+      <c r="D63">
+        <v>16</v>
+      </c>
+      <c r="E63">
+        <v>0.69875</v>
+      </c>
+      <c r="F63">
+        <v>134.5416666666667</v>
+      </c>
+      <c r="G63">
+        <v>26.25</v>
+      </c>
+      <c r="H63">
+        <v>96</v>
+      </c>
+      <c r="I63">
+        <v>92.45833333333331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>20200403</v>
+      </c>
+      <c r="C64">
+        <v>9.25</v>
+      </c>
+      <c r="D64">
+        <v>28.83333333333333</v>
+      </c>
+      <c r="E64">
+        <v>0.6995833333333333</v>
+      </c>
+      <c r="F64">
+        <v>103.375</v>
+      </c>
+      <c r="G64">
+        <v>25.08333333333333</v>
+      </c>
+      <c r="H64">
+        <v>108</v>
+      </c>
+      <c r="I64">
+        <v>76.91666666666667</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65">
+        <v>20200404</v>
+      </c>
+      <c r="C65">
+        <v>9.208333333333334</v>
+      </c>
+      <c r="D65">
+        <v>27.75</v>
+      </c>
+      <c r="E65">
+        <v>0.6649999999999999</v>
+      </c>
+      <c r="F65">
+        <v>79.70833333333333</v>
+      </c>
+      <c r="G65">
+        <v>21.16666666666667</v>
+      </c>
+      <c r="H65">
+        <v>106</v>
+      </c>
+      <c r="I65">
+        <v>65.125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66">
+        <v>20200405</v>
+      </c>
+      <c r="C66">
+        <v>11.54166666666667</v>
+      </c>
+      <c r="D66">
+        <v>36.45833333333334</v>
+      </c>
+      <c r="E66">
+        <v>0.7516666666666666</v>
+      </c>
+      <c r="F66">
+        <v>100.25</v>
+      </c>
+      <c r="G66">
+        <v>25.375</v>
+      </c>
+      <c r="H66">
+        <v>115</v>
+      </c>
+      <c r="I66">
+        <v>75.41666666666667</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>20200406</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>35.95833333333334</v>
+      </c>
+      <c r="E67">
+        <v>0.7925</v>
+      </c>
+      <c r="F67">
+        <v>97.08333333333331</v>
+      </c>
+      <c r="G67">
+        <v>24.08333333333333</v>
+      </c>
+      <c r="H67">
+        <v>129</v>
+      </c>
+      <c r="I67">
+        <v>73.83333333333333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>20200407</v>
+      </c>
+      <c r="C68">
+        <v>9.708333333333334</v>
+      </c>
+      <c r="D68">
+        <v>40.41666666666666</v>
+      </c>
+      <c r="E68">
+        <v>0.80125</v>
+      </c>
+      <c r="F68">
+        <v>98.91666666666669</v>
+      </c>
+      <c r="G68">
+        <v>24.54166666666667</v>
+      </c>
+      <c r="H68">
+        <v>119</v>
+      </c>
+      <c r="I68">
+        <v>74.625</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>20200408</v>
+      </c>
+      <c r="C69">
+        <v>7.916666666666667</v>
+      </c>
+      <c r="D69">
+        <v>37.79166666666666</v>
+      </c>
+      <c r="E69">
+        <v>0.7091666666666666</v>
+      </c>
+      <c r="F69">
+        <v>82</v>
+      </c>
+      <c r="G69">
+        <v>22.16666666666667</v>
+      </c>
+      <c r="H69">
+        <v>129</v>
+      </c>
+      <c r="I69">
+        <v>66.16666666666667</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>20200409</v>
+      </c>
+      <c r="C70">
+        <v>9.347826086956522</v>
+      </c>
+      <c r="D70">
+        <v>40.56521739130435</v>
+      </c>
+      <c r="E70">
+        <v>0.7369565217391304</v>
+      </c>
+      <c r="F70">
+        <v>289.0434782608696</v>
+      </c>
+      <c r="G70">
+        <v>37.26086956521739</v>
+      </c>
+      <c r="H70">
+        <v>104</v>
+      </c>
+      <c r="I70">
+        <v>187.7391304347826</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>20200410</v>
+      </c>
+      <c r="C71">
+        <v>5.916666666666667</v>
+      </c>
+      <c r="D71">
+        <v>15.625</v>
+      </c>
+      <c r="E71">
+        <v>0.5429166666666666</v>
+      </c>
+      <c r="F71">
+        <v>413.7083333333333</v>
+      </c>
+      <c r="G71">
+        <v>49.45833333333334</v>
+      </c>
+      <c r="H71">
+        <v>90</v>
+      </c>
+      <c r="I71">
+        <v>195.6666666666666</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>20200411</v>
+      </c>
+      <c r="C72">
+        <v>9.666666666666666</v>
+      </c>
+      <c r="D72">
+        <v>31.58333333333333</v>
+      </c>
+      <c r="E72">
+        <v>0.6783333333333333</v>
+      </c>
+      <c r="F72">
+        <v>186.375</v>
+      </c>
+      <c r="G72">
+        <v>27.33333333333333</v>
+      </c>
+      <c r="H72">
+        <v>80</v>
+      </c>
+      <c r="I72">
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>20200412</v>
+      </c>
+      <c r="C73">
+        <v>10.04166666666667</v>
+      </c>
+      <c r="D73">
+        <v>44.16666666666666</v>
+      </c>
+      <c r="E73">
+        <v>0.8320833333333333</v>
+      </c>
+      <c r="F73">
+        <v>233.9166666666666</v>
+      </c>
+      <c r="G73">
+        <v>42.58333333333334</v>
+      </c>
+      <c r="H73">
+        <v>93</v>
+      </c>
+      <c r="I73">
+        <v>142.1666666666667</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <v>20200413</v>
+      </c>
+      <c r="C74">
+        <v>10.66666666666667</v>
+      </c>
+      <c r="D74">
+        <v>54.29166666666666</v>
+      </c>
+      <c r="E74">
+        <v>0.95</v>
+      </c>
+      <c r="F74">
+        <v>275.625</v>
+      </c>
+      <c r="G74">
+        <v>57.625</v>
+      </c>
+      <c r="H74">
+        <v>117</v>
+      </c>
+      <c r="I74">
+        <v>163.0833333333333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75">
+        <v>20200414</v>
+      </c>
+      <c r="C75">
+        <v>8.958333333333334</v>
+      </c>
+      <c r="D75">
+        <v>34.58333333333334</v>
+      </c>
+      <c r="E75">
+        <v>0.7162500000000001</v>
+      </c>
+      <c r="F75">
+        <v>203.5833333333333</v>
+      </c>
+      <c r="G75">
+        <v>38.70833333333334</v>
+      </c>
+      <c r="H75">
+        <v>102</v>
+      </c>
+      <c r="I75">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>20200415</v>
+      </c>
+      <c r="C76">
+        <v>8.791666666666666</v>
+      </c>
+      <c r="D76">
+        <v>21.04166666666667</v>
+      </c>
+      <c r="E76">
+        <v>0.5229166666666666</v>
+      </c>
+      <c r="F76">
+        <v>49.75</v>
+      </c>
+      <c r="G76">
+        <v>23.66666666666667</v>
+      </c>
+      <c r="H76">
+        <v>89</v>
+      </c>
+      <c r="I76">
+        <v>48.625</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>20200416</v>
+      </c>
+      <c r="C77">
+        <v>6.291666666666667</v>
+      </c>
+      <c r="D77">
+        <v>22.83333333333333</v>
+      </c>
+      <c r="E77">
+        <v>0.51625</v>
+      </c>
+      <c r="F77">
+        <v>47.08333333333334</v>
+      </c>
+      <c r="G77">
+        <v>17.20833333333333</v>
+      </c>
+      <c r="H77">
+        <v>80</v>
+      </c>
+      <c r="I77">
+        <v>44.83333333333334</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78">
+        <v>20200417</v>
+      </c>
+      <c r="C78">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="D78">
+        <v>20.91666666666667</v>
+      </c>
+      <c r="E78">
+        <v>0.5850000000000001</v>
+      </c>
+      <c r="F78">
+        <v>29.66666666666667</v>
+      </c>
+      <c r="G78">
+        <v>17.08333333333333</v>
+      </c>
+      <c r="H78">
+        <v>69</v>
+      </c>
+      <c r="I78">
+        <v>31.41666666666667</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79">
+        <v>20200418</v>
+      </c>
+      <c r="C79">
+        <v>7.625</v>
+      </c>
+      <c r="D79">
+        <v>30.875</v>
+      </c>
+      <c r="E79">
+        <v>0.6366666666666666</v>
+      </c>
+      <c r="F79">
+        <v>48.08333333333334</v>
+      </c>
+      <c r="G79">
+        <v>19.625</v>
+      </c>
+      <c r="H79">
+        <v>85</v>
+      </c>
+      <c r="I79">
+        <v>46.58333333333334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80">
+        <v>20200419</v>
+      </c>
+      <c r="C80">
+        <v>7.375</v>
+      </c>
+      <c r="D80">
+        <v>29.375</v>
+      </c>
+      <c r="E80">
+        <v>0.6025</v>
+      </c>
+      <c r="F80">
+        <v>46.75</v>
+      </c>
+      <c r="G80">
+        <v>15.54166666666667</v>
+      </c>
+      <c r="H80">
+        <v>108</v>
+      </c>
+      <c r="I80">
+        <v>45.83333333333334</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81">
+        <v>20200420</v>
+      </c>
+      <c r="C81">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="D81">
+        <v>31</v>
+      </c>
+      <c r="E81">
+        <v>0.57</v>
+      </c>
+      <c r="F81">
+        <v>56.91666666666666</v>
+      </c>
+      <c r="G81">
+        <v>14.625</v>
+      </c>
+      <c r="H81">
+        <v>100</v>
+      </c>
+      <c r="I81">
+        <v>51.58333333333334</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82">
+        <v>20200421</v>
+      </c>
+      <c r="C82">
+        <v>5.875</v>
+      </c>
+      <c r="D82">
+        <v>20.58333333333333</v>
+      </c>
+      <c r="E82">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="F82">
+        <v>36.20833333333334</v>
+      </c>
+      <c r="G82">
+        <v>11.58333333333333</v>
+      </c>
+      <c r="H82">
+        <v>116</v>
+      </c>
+      <c r="I82">
+        <v>38.125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83">
+        <v>20200422</v>
+      </c>
+      <c r="C83">
+        <v>6.208333333333333</v>
+      </c>
+      <c r="D83">
+        <v>24.70833333333333</v>
+      </c>
+      <c r="E83">
+        <v>0.4912499999999999</v>
+      </c>
+      <c r="F83">
+        <v>50.875</v>
+      </c>
+      <c r="G83">
+        <v>14.79166666666667</v>
+      </c>
+      <c r="H83">
+        <v>120</v>
+      </c>
+      <c r="I83">
+        <v>49.25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84">
+        <v>20200423</v>
+      </c>
+      <c r="C84">
+        <v>6.166666666666667</v>
+      </c>
+      <c r="D84">
+        <v>21.70833333333333</v>
+      </c>
+      <c r="E84">
+        <v>0.4529166666666666</v>
+      </c>
+      <c r="F84">
+        <v>71.45833333333333</v>
+      </c>
+      <c r="G84">
+        <v>14.91666666666667</v>
+      </c>
+      <c r="H84">
+        <v>111</v>
+      </c>
+      <c r="I84">
+        <v>60.41666666666666</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85">
+        <v>20200424</v>
+      </c>
+      <c r="C85">
+        <v>6.291666666666667</v>
+      </c>
+      <c r="D85">
+        <v>12.625</v>
+      </c>
+      <c r="E85">
+        <v>0.4133333333333333</v>
+      </c>
+      <c r="F85">
+        <v>83.83333333333333</v>
+      </c>
+      <c r="G85">
+        <v>19.20833333333333</v>
+      </c>
+      <c r="H85">
+        <v>113</v>
+      </c>
+      <c r="I85">
+        <v>67.16666666666667</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86">
+        <v>20200425</v>
+      </c>
+      <c r="C86">
+        <v>6.347826086956522</v>
+      </c>
+      <c r="D86">
+        <v>12.69565217391304</v>
+      </c>
+      <c r="E86">
+        <v>0.4043478260869566</v>
+      </c>
+      <c r="F86">
+        <v>86.47826086956522</v>
+      </c>
+      <c r="G86">
+        <v>20.13043478260869</v>
+      </c>
+      <c r="H86">
+        <v>114</v>
+      </c>
+      <c r="I86">
+        <v>68.43478260869566</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87">
+        <v>20200426</v>
+      </c>
+      <c r="C87">
+        <v>6.416666666666667</v>
+      </c>
+      <c r="D87">
+        <v>15.41666666666667</v>
+      </c>
+      <c r="E87">
+        <v>0.4241666666666666</v>
+      </c>
+      <c r="F87">
+        <v>87.75</v>
+      </c>
+      <c r="G87">
+        <v>20.79166666666667</v>
+      </c>
+      <c r="H87">
+        <v>118</v>
+      </c>
+      <c r="I87">
+        <v>69.16666666666667</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88">
+        <v>20200427</v>
+      </c>
+      <c r="C88">
+        <v>9.208333333333334</v>
+      </c>
+      <c r="D88">
+        <v>23.5</v>
+      </c>
+      <c r="E88">
+        <v>0.49625</v>
+      </c>
+      <c r="F88">
+        <v>71.5</v>
+      </c>
+      <c r="G88">
+        <v>19.54166666666667</v>
+      </c>
+      <c r="H88">
+        <v>125</v>
+      </c>
+      <c r="I88">
+        <v>60.95833333333334</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89">
+        <v>20200428</v>
+      </c>
+      <c r="C89">
+        <v>7.416666666666667</v>
+      </c>
+      <c r="D89">
+        <v>29.25</v>
+      </c>
+      <c r="E89">
+        <v>0.53</v>
+      </c>
+      <c r="F89">
+        <v>82.08333333333333</v>
+      </c>
+      <c r="G89">
+        <v>21.16666666666667</v>
+      </c>
+      <c r="H89">
+        <v>134</v>
+      </c>
+      <c r="I89">
+        <v>66.20833333333333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90">
+        <v>20200429</v>
+      </c>
+      <c r="C90">
+        <v>8.541666666666666</v>
+      </c>
+      <c r="D90">
+        <v>36.20833333333334</v>
+      </c>
+      <c r="E90">
+        <v>0.6495833333333333</v>
+      </c>
+      <c r="F90">
+        <v>95.33333333333331</v>
+      </c>
+      <c r="G90">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="H90">
+        <v>143</v>
+      </c>
+      <c r="I90">
+        <v>72.91666666666667</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91">
+        <v>20200430</v>
+      </c>
+      <c r="C91">
+        <v>9.125</v>
+      </c>
+      <c r="D91">
+        <v>21.41666666666667</v>
+      </c>
+      <c r="E91">
+        <v>0.6070833333333333</v>
+      </c>
+      <c r="F91">
+        <v>155.5416666666667</v>
+      </c>
+      <c r="G91">
+        <v>31.95833333333333</v>
+      </c>
+      <c r="H91">
+        <v>116</v>
+      </c>
+      <c r="I91">
+        <v>103.0416666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -484,7 +4895,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -519,6 +4930,1775 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>20200501</v>
+      </c>
+      <c r="C2">
+        <v>9.333333333333334</v>
+      </c>
+      <c r="D2">
+        <v>13.20833333333333</v>
+      </c>
+      <c r="E2">
+        <v>0.5570833333333333</v>
+      </c>
+      <c r="F2">
+        <v>103.0833333333333</v>
+      </c>
+      <c r="G2">
+        <v>19.16666666666667</v>
+      </c>
+      <c r="H2">
+        <v>92</v>
+      </c>
+      <c r="I2">
+        <v>76.41666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>20200502</v>
+      </c>
+      <c r="C3">
+        <v>7.541666666666667</v>
+      </c>
+      <c r="D3">
+        <v>24.45833333333333</v>
+      </c>
+      <c r="E3">
+        <v>0.5791666666666667</v>
+      </c>
+      <c r="F3">
+        <v>29.95833333333333</v>
+      </c>
+      <c r="G3">
+        <v>9.791666666666666</v>
+      </c>
+      <c r="H3">
+        <v>109</v>
+      </c>
+      <c r="I3">
+        <v>33.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>20200503</v>
+      </c>
+      <c r="C4">
+        <v>9.5</v>
+      </c>
+      <c r="D4">
+        <v>38.875</v>
+      </c>
+      <c r="E4">
+        <v>0.61375</v>
+      </c>
+      <c r="F4">
+        <v>55.25</v>
+      </c>
+      <c r="G4">
+        <v>16.08333333333333</v>
+      </c>
+      <c r="H4">
+        <v>127</v>
+      </c>
+      <c r="I4">
+        <v>50.66666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>20200504</v>
+      </c>
+      <c r="C5">
+        <v>8.625</v>
+      </c>
+      <c r="D5">
+        <v>37.83333333333334</v>
+      </c>
+      <c r="E5">
+        <v>0.6591666666666667</v>
+      </c>
+      <c r="F5">
+        <v>116.1666666666667</v>
+      </c>
+      <c r="G5">
+        <v>22.70833333333333</v>
+      </c>
+      <c r="H5">
+        <v>103</v>
+      </c>
+      <c r="I5">
+        <v>83.33333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>20200505</v>
+      </c>
+      <c r="C6">
+        <v>8.291666666666666</v>
+      </c>
+      <c r="D6">
+        <v>25.66666666666667</v>
+      </c>
+      <c r="E6">
+        <v>0.6262500000000001</v>
+      </c>
+      <c r="F6">
+        <v>98.04166666666669</v>
+      </c>
+      <c r="G6">
+        <v>23.41666666666667</v>
+      </c>
+      <c r="H6">
+        <v>108</v>
+      </c>
+      <c r="I6">
+        <v>77.20833333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>20200506</v>
+      </c>
+      <c r="C7">
+        <v>6.791666666666667</v>
+      </c>
+      <c r="D7">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="E7">
+        <v>0.5341666666666667</v>
+      </c>
+      <c r="F7">
+        <v>29.5</v>
+      </c>
+      <c r="G7">
+        <v>17.16666666666667</v>
+      </c>
+      <c r="H7">
+        <v>92</v>
+      </c>
+      <c r="I7">
+        <v>31.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>20200507</v>
+      </c>
+      <c r="C8">
+        <v>7.708333333333333</v>
+      </c>
+      <c r="D8">
+        <v>28.66666666666667</v>
+      </c>
+      <c r="E8">
+        <v>0.50375</v>
+      </c>
+      <c r="F8">
+        <v>40.25</v>
+      </c>
+      <c r="G8">
+        <v>15.66666666666667</v>
+      </c>
+      <c r="H8">
+        <v>109</v>
+      </c>
+      <c r="I8">
+        <v>42.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>20200508</v>
+      </c>
+      <c r="C9">
+        <v>8.5</v>
+      </c>
+      <c r="D9">
+        <v>36.58333333333334</v>
+      </c>
+      <c r="E9">
+        <v>0.5345833333333333</v>
+      </c>
+      <c r="F9">
+        <v>55.33333333333334</v>
+      </c>
+      <c r="G9">
+        <v>16.25</v>
+      </c>
+      <c r="H9">
+        <v>114</v>
+      </c>
+      <c r="I9">
+        <v>50.20833333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>20200509</v>
+      </c>
+      <c r="C10">
+        <v>9.208333333333334</v>
+      </c>
+      <c r="D10">
+        <v>36.875</v>
+      </c>
+      <c r="E10">
+        <v>0.5529166666666666</v>
+      </c>
+      <c r="F10">
+        <v>61.95833333333334</v>
+      </c>
+      <c r="G10">
+        <v>16.20833333333333</v>
+      </c>
+      <c r="H10">
+        <v>129</v>
+      </c>
+      <c r="I10">
+        <v>55.04166666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>20200510</v>
+      </c>
+      <c r="C11">
+        <v>7.583333333333333</v>
+      </c>
+      <c r="D11">
+        <v>24.625</v>
+      </c>
+      <c r="E11">
+        <v>0.4854166666666666</v>
+      </c>
+      <c r="F11">
+        <v>169.6666666666667</v>
+      </c>
+      <c r="G11">
+        <v>36.875</v>
+      </c>
+      <c r="H11">
+        <v>106</v>
+      </c>
+      <c r="I11">
+        <v>110.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>20200511</v>
+      </c>
+      <c r="C12">
+        <v>7.416666666666667</v>
+      </c>
+      <c r="D12">
+        <v>16.625</v>
+      </c>
+      <c r="E12">
+        <v>0.4241666666666666</v>
+      </c>
+      <c r="F12">
+        <v>81.5</v>
+      </c>
+      <c r="G12">
+        <v>23.25</v>
+      </c>
+      <c r="H12">
+        <v>119</v>
+      </c>
+      <c r="I12">
+        <v>65.91666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>20200512</v>
+      </c>
+      <c r="C13">
+        <v>8.333333333333334</v>
+      </c>
+      <c r="D13">
+        <v>25.625</v>
+      </c>
+      <c r="E13">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="F13">
+        <v>94.125</v>
+      </c>
+      <c r="G13">
+        <v>23.75</v>
+      </c>
+      <c r="H13">
+        <v>116</v>
+      </c>
+      <c r="I13">
+        <v>72.29166666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>20200513</v>
+      </c>
+      <c r="C14">
+        <v>6.869565217391305</v>
+      </c>
+      <c r="D14">
+        <v>30.52173913043478</v>
+      </c>
+      <c r="E14">
+        <v>0.4952173913043478</v>
+      </c>
+      <c r="F14">
+        <v>62.95652173913044</v>
+      </c>
+      <c r="G14">
+        <v>19.39130434782609</v>
+      </c>
+      <c r="H14">
+        <v>107</v>
+      </c>
+      <c r="I14">
+        <v>54.47826086956522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>20200514</v>
+      </c>
+      <c r="C15">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="D15">
+        <v>24.95833333333333</v>
+      </c>
+      <c r="E15">
+        <v>0.4545833333333333</v>
+      </c>
+      <c r="F15">
+        <v>61.54166666666666</v>
+      </c>
+      <c r="G15">
+        <v>14.875</v>
+      </c>
+      <c r="H15">
+        <v>112</v>
+      </c>
+      <c r="I15">
+        <v>53.70833333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>20200515</v>
+      </c>
+      <c r="C16">
+        <v>6.875</v>
+      </c>
+      <c r="D16">
+        <v>30.91666666666667</v>
+      </c>
+      <c r="E16">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="F16">
+        <v>56.75</v>
+      </c>
+      <c r="G16">
+        <v>17.08333333333333</v>
+      </c>
+      <c r="H16">
+        <v>124</v>
+      </c>
+      <c r="I16">
+        <v>52.875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>20200516</v>
+      </c>
+      <c r="C17">
+        <v>9.291666666666666</v>
+      </c>
+      <c r="D17">
+        <v>16.58333333333333</v>
+      </c>
+      <c r="E17">
+        <v>0.4433333333333333</v>
+      </c>
+      <c r="F17">
+        <v>191.7083333333333</v>
+      </c>
+      <c r="G17">
+        <v>40.29166666666666</v>
+      </c>
+      <c r="H17">
+        <v>107</v>
+      </c>
+      <c r="I17">
+        <v>136.3333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>20200517</v>
+      </c>
+      <c r="C18">
+        <v>11.33333333333333</v>
+      </c>
+      <c r="D18">
+        <v>21.04166666666667</v>
+      </c>
+      <c r="E18">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="F18">
+        <v>60.54166666666666</v>
+      </c>
+      <c r="G18">
+        <v>16.04166666666667</v>
+      </c>
+      <c r="H18">
+        <v>102</v>
+      </c>
+      <c r="I18">
+        <v>55.08333333333334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>20200518</v>
+      </c>
+      <c r="C19">
+        <v>11.125</v>
+      </c>
+      <c r="D19">
+        <v>34.70833333333334</v>
+      </c>
+      <c r="E19">
+        <v>0.5391666666666667</v>
+      </c>
+      <c r="F19">
+        <v>76.70833333333333</v>
+      </c>
+      <c r="G19">
+        <v>20.33333333333333</v>
+      </c>
+      <c r="H19">
+        <v>121</v>
+      </c>
+      <c r="I19">
+        <v>63.54166666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>20200519</v>
+      </c>
+      <c r="C20">
+        <v>8.666666666666666</v>
+      </c>
+      <c r="D20">
+        <v>29.29166666666667</v>
+      </c>
+      <c r="E20">
+        <v>0.5016666666666666</v>
+      </c>
+      <c r="F20">
+        <v>82.70833333333333</v>
+      </c>
+      <c r="G20">
+        <v>22.125</v>
+      </c>
+      <c r="H20">
+        <v>108</v>
+      </c>
+      <c r="I20">
+        <v>66.45833333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>20200520</v>
+      </c>
+      <c r="C21">
+        <v>8.75</v>
+      </c>
+      <c r="D21">
+        <v>17.29166666666667</v>
+      </c>
+      <c r="E21">
+        <v>0.4516666666666666</v>
+      </c>
+      <c r="F21">
+        <v>75.41666666666667</v>
+      </c>
+      <c r="G21">
+        <v>21.29166666666667</v>
+      </c>
+      <c r="H21">
+        <v>96</v>
+      </c>
+      <c r="I21">
+        <v>62.70833333333334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>20200521</v>
+      </c>
+      <c r="C22">
+        <v>7.208333333333333</v>
+      </c>
+      <c r="D22">
+        <v>21.04166666666667</v>
+      </c>
+      <c r="E22">
+        <v>0.4816666666666667</v>
+      </c>
+      <c r="F22">
+        <v>46.95833333333334</v>
+      </c>
+      <c r="G22">
+        <v>12.58333333333333</v>
+      </c>
+      <c r="H22">
+        <v>84</v>
+      </c>
+      <c r="I22">
+        <v>42.375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>20200522</v>
+      </c>
+      <c r="C23">
+        <v>6.875</v>
+      </c>
+      <c r="D23">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="E23">
+        <v>0.495</v>
+      </c>
+      <c r="F23">
+        <v>27.29166666666667</v>
+      </c>
+      <c r="G23">
+        <v>11.625</v>
+      </c>
+      <c r="H23">
+        <v>101</v>
+      </c>
+      <c r="I23">
+        <v>31.83333333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>20200523</v>
+      </c>
+      <c r="C24">
+        <v>7.125</v>
+      </c>
+      <c r="D24">
+        <v>25.91666666666667</v>
+      </c>
+      <c r="E24">
+        <v>0.4475</v>
+      </c>
+      <c r="F24">
+        <v>43.91666666666666</v>
+      </c>
+      <c r="G24">
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <v>99</v>
+      </c>
+      <c r="I24">
+        <v>44.29166666666666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>20200524</v>
+      </c>
+      <c r="C25">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="D25">
+        <v>20.125</v>
+      </c>
+      <c r="E25">
+        <v>0.47625</v>
+      </c>
+      <c r="F25">
+        <v>37.625</v>
+      </c>
+      <c r="G25">
+        <v>11.83333333333333</v>
+      </c>
+      <c r="H25">
+        <v>91</v>
+      </c>
+      <c r="I25">
+        <v>38.70833333333334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>20200525</v>
+      </c>
+      <c r="C26">
+        <v>7.875</v>
+      </c>
+      <c r="D26">
+        <v>22.375</v>
+      </c>
+      <c r="E26">
+        <v>0.47625</v>
+      </c>
+      <c r="F26">
+        <v>31.33333333333333</v>
+      </c>
+      <c r="G26">
+        <v>15.5</v>
+      </c>
+      <c r="H26">
+        <v>116</v>
+      </c>
+      <c r="I26">
+        <v>37.79166666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>20200526</v>
+      </c>
+      <c r="C27">
+        <v>7.583333333333333</v>
+      </c>
+      <c r="D27">
+        <v>27.875</v>
+      </c>
+      <c r="E27">
+        <v>0.4975</v>
+      </c>
+      <c r="F27">
+        <v>44.95833333333334</v>
+      </c>
+      <c r="G27">
+        <v>16.16666666666667</v>
+      </c>
+      <c r="H27">
+        <v>127</v>
+      </c>
+      <c r="I27">
+        <v>46.91666666666666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>20200527</v>
+      </c>
+      <c r="C28">
+        <v>8.041666666666666</v>
+      </c>
+      <c r="D28">
+        <v>29.08333333333333</v>
+      </c>
+      <c r="E28">
+        <v>0.4966666666666666</v>
+      </c>
+      <c r="F28">
+        <v>53.16666666666666</v>
+      </c>
+      <c r="G28">
+        <v>18.58333333333333</v>
+      </c>
+      <c r="H28">
+        <v>132</v>
+      </c>
+      <c r="I28">
+        <v>51.29166666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>20200528</v>
+      </c>
+      <c r="C29">
+        <v>7.25</v>
+      </c>
+      <c r="D29">
+        <v>15.5</v>
+      </c>
+      <c r="E29">
+        <v>0.4504166666666667</v>
+      </c>
+      <c r="F29">
+        <v>137.375</v>
+      </c>
+      <c r="G29">
+        <v>27.66666666666667</v>
+      </c>
+      <c r="H29">
+        <v>107</v>
+      </c>
+      <c r="I29">
+        <v>93.79166666666669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>20200529</v>
+      </c>
+      <c r="C30">
+        <v>7.291666666666667</v>
+      </c>
+      <c r="D30">
+        <v>28.33333333333333</v>
+      </c>
+      <c r="E30">
+        <v>0.4679166666666667</v>
+      </c>
+      <c r="F30">
+        <v>64.08333333333333</v>
+      </c>
+      <c r="G30">
+        <v>15.58333333333333</v>
+      </c>
+      <c r="H30">
+        <v>109</v>
+      </c>
+      <c r="I30">
+        <v>54.54166666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>20200530</v>
+      </c>
+      <c r="C31">
+        <v>7.833333333333333</v>
+      </c>
+      <c r="D31">
+        <v>32.625</v>
+      </c>
+      <c r="E31">
+        <v>0.4979166666666666</v>
+      </c>
+      <c r="F31">
+        <v>61.54166666666666</v>
+      </c>
+      <c r="G31">
+        <v>16.625</v>
+      </c>
+      <c r="H31">
+        <v>115</v>
+      </c>
+      <c r="I31">
+        <v>53.33333333333334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>20200531</v>
+      </c>
+      <c r="C32">
+        <v>7.791666666666667</v>
+      </c>
+      <c r="D32">
+        <v>21.33333333333333</v>
+      </c>
+      <c r="E32">
+        <v>0.5287499999999999</v>
+      </c>
+      <c r="F32">
+        <v>52.54166666666666</v>
+      </c>
+      <c r="G32">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="H32">
+        <v>105</v>
+      </c>
+      <c r="I32">
+        <v>48.20833333333334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>20200601</v>
+      </c>
+      <c r="C33">
+        <v>7.583333333333333</v>
+      </c>
+      <c r="D33">
+        <v>28.54166666666667</v>
+      </c>
+      <c r="E33">
+        <v>0.5375</v>
+      </c>
+      <c r="F33">
+        <v>61.45833333333334</v>
+      </c>
+      <c r="G33">
+        <v>16.58333333333333</v>
+      </c>
+      <c r="H33">
+        <v>113</v>
+      </c>
+      <c r="I33">
+        <v>53.54166666666666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>20200602</v>
+      </c>
+      <c r="C34">
+        <v>7.541666666666667</v>
+      </c>
+      <c r="D34">
+        <v>31.66666666666667</v>
+      </c>
+      <c r="E34">
+        <v>0.5433333333333333</v>
+      </c>
+      <c r="F34">
+        <v>63.79166666666666</v>
+      </c>
+      <c r="G34">
+        <v>15.29166666666667</v>
+      </c>
+      <c r="H34">
+        <v>114</v>
+      </c>
+      <c r="I34">
+        <v>54.875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>20200603</v>
+      </c>
+      <c r="C35">
+        <v>8.541666666666666</v>
+      </c>
+      <c r="D35">
+        <v>32.83333333333334</v>
+      </c>
+      <c r="E35">
+        <v>0.6529166666666667</v>
+      </c>
+      <c r="F35">
+        <v>88.95833333333333</v>
+      </c>
+      <c r="G35">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="H35">
+        <v>120</v>
+      </c>
+      <c r="I35">
+        <v>69.70833333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>20200604</v>
+      </c>
+      <c r="C36">
+        <v>7.791666666666667</v>
+      </c>
+      <c r="D36">
+        <v>27.20833333333333</v>
+      </c>
+      <c r="E36">
+        <v>0.6537499999999999</v>
+      </c>
+      <c r="F36">
+        <v>66.33333333333333</v>
+      </c>
+      <c r="G36">
+        <v>18.41666666666667</v>
+      </c>
+      <c r="H36">
+        <v>112</v>
+      </c>
+      <c r="I36">
+        <v>55.91666666666666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>20200605</v>
+      </c>
+      <c r="C37">
+        <v>9.083333333333334</v>
+      </c>
+      <c r="D37">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="E37">
+        <v>0.6370833333333333</v>
+      </c>
+      <c r="F37">
+        <v>130.7083333333333</v>
+      </c>
+      <c r="G37">
+        <v>27</v>
+      </c>
+      <c r="H37">
+        <v>104</v>
+      </c>
+      <c r="I37">
+        <v>95.29166666666669</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>20200606</v>
+      </c>
+      <c r="C38">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="D38">
+        <v>10.625</v>
+      </c>
+      <c r="E38">
+        <v>0.4904166666666666</v>
+      </c>
+      <c r="F38">
+        <v>84</v>
+      </c>
+      <c r="G38">
+        <v>20.20833333333333</v>
+      </c>
+      <c r="H38">
+        <v>94</v>
+      </c>
+      <c r="I38">
+        <v>65.875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>20200607</v>
+      </c>
+      <c r="C39">
+        <v>7.166666666666667</v>
+      </c>
+      <c r="D39">
+        <v>21.16666666666667</v>
+      </c>
+      <c r="E39">
+        <v>0.5154166666666667</v>
+      </c>
+      <c r="F39">
+        <v>44.16666666666666</v>
+      </c>
+      <c r="G39">
+        <v>12.54166666666667</v>
+      </c>
+      <c r="H39">
+        <v>85</v>
+      </c>
+      <c r="I39">
+        <v>42.625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>20200608</v>
+      </c>
+      <c r="C40">
+        <v>7.791666666666667</v>
+      </c>
+      <c r="D40">
+        <v>27.08333333333333</v>
+      </c>
+      <c r="E40">
+        <v>0.5504166666666667</v>
+      </c>
+      <c r="F40">
+        <v>47.70833333333334</v>
+      </c>
+      <c r="G40">
+        <v>12.16666666666667</v>
+      </c>
+      <c r="H40">
+        <v>99</v>
+      </c>
+      <c r="I40">
+        <v>44.29166666666666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>20200609</v>
+      </c>
+      <c r="C41">
+        <v>9.304347826086955</v>
+      </c>
+      <c r="D41">
+        <v>32.39130434782609</v>
+      </c>
+      <c r="E41">
+        <v>0.6039130434782609</v>
+      </c>
+      <c r="F41">
+        <v>53.17391304347826</v>
+      </c>
+      <c r="G41">
+        <v>13.04347826086956</v>
+      </c>
+      <c r="H41">
+        <v>116</v>
+      </c>
+      <c r="I41">
+        <v>49.47826086956522</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>20200610</v>
+      </c>
+      <c r="C42">
+        <v>8.583333333333334</v>
+      </c>
+      <c r="D42">
+        <v>34.83333333333334</v>
+      </c>
+      <c r="E42">
+        <v>0.6195833333333333</v>
+      </c>
+      <c r="F42">
+        <v>64.45833333333333</v>
+      </c>
+      <c r="G42">
+        <v>15.95833333333333</v>
+      </c>
+      <c r="H42">
+        <v>103</v>
+      </c>
+      <c r="I42">
+        <v>55.41666666666666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>20200611</v>
+      </c>
+      <c r="C43">
+        <v>7.208333333333333</v>
+      </c>
+      <c r="D43">
+        <v>18.79166666666667</v>
+      </c>
+      <c r="E43">
+        <v>0.5170833333333333</v>
+      </c>
+      <c r="F43">
+        <v>32.95833333333334</v>
+      </c>
+      <c r="G43">
+        <v>10.91666666666667</v>
+      </c>
+      <c r="H43">
+        <v>106</v>
+      </c>
+      <c r="I43">
+        <v>35.83333333333334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>20200612</v>
+      </c>
+      <c r="C44">
+        <v>9.333333333333334</v>
+      </c>
+      <c r="D44">
+        <v>21.83333333333333</v>
+      </c>
+      <c r="E44">
+        <v>0.5858333333333333</v>
+      </c>
+      <c r="F44">
+        <v>36.625</v>
+      </c>
+      <c r="G44">
+        <v>11.25</v>
+      </c>
+      <c r="H44">
+        <v>111</v>
+      </c>
+      <c r="I44">
+        <v>39.08333333333334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>20200613</v>
+      </c>
+      <c r="C45">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>37.625</v>
+      </c>
+      <c r="E45">
+        <v>0.7020833333333334</v>
+      </c>
+      <c r="F45">
+        <v>76.45833333333333</v>
+      </c>
+      <c r="G45">
+        <v>19</v>
+      </c>
+      <c r="H45">
+        <v>136</v>
+      </c>
+      <c r="I45">
+        <v>63.33333333333334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>20200614</v>
+      </c>
+      <c r="C46">
+        <v>8.208333333333334</v>
+      </c>
+      <c r="D46">
+        <v>23.20833333333333</v>
+      </c>
+      <c r="E46">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="F46">
+        <v>43.75</v>
+      </c>
+      <c r="G46">
+        <v>12.75</v>
+      </c>
+      <c r="H46">
+        <v>131</v>
+      </c>
+      <c r="I46">
+        <v>46.125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>20200615</v>
+      </c>
+      <c r="C47">
+        <v>7.125</v>
+      </c>
+      <c r="D47">
+        <v>18.91666666666667</v>
+      </c>
+      <c r="E47">
+        <v>0.5591666666666667</v>
+      </c>
+      <c r="F47">
+        <v>33.125</v>
+      </c>
+      <c r="G47">
+        <v>8.791666666666666</v>
+      </c>
+      <c r="H47">
+        <v>126</v>
+      </c>
+      <c r="I47">
+        <v>37.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>20200616</v>
+      </c>
+      <c r="C48">
+        <v>8.291666666666666</v>
+      </c>
+      <c r="D48">
+        <v>33.5</v>
+      </c>
+      <c r="E48">
+        <v>0.6116666666666667</v>
+      </c>
+      <c r="F48">
+        <v>62.41666666666666</v>
+      </c>
+      <c r="G48">
+        <v>19.125</v>
+      </c>
+      <c r="H48">
+        <v>126</v>
+      </c>
+      <c r="I48">
+        <v>55.29166666666666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>20200617</v>
+      </c>
+      <c r="C49">
+        <v>9.041666666666666</v>
+      </c>
+      <c r="D49">
+        <v>35.91666666666666</v>
+      </c>
+      <c r="E49">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="F49">
+        <v>76.75</v>
+      </c>
+      <c r="G49">
+        <v>21.41666666666667</v>
+      </c>
+      <c r="H49">
+        <v>115</v>
+      </c>
+      <c r="I49">
+        <v>63.08333333333334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>20200618</v>
+      </c>
+      <c r="C50">
+        <v>8.5</v>
+      </c>
+      <c r="D50">
+        <v>17.41666666666667</v>
+      </c>
+      <c r="E50">
+        <v>0.5733333333333334</v>
+      </c>
+      <c r="F50">
+        <v>130.75</v>
+      </c>
+      <c r="G50">
+        <v>28.58333333333333</v>
+      </c>
+      <c r="H50">
+        <v>114</v>
+      </c>
+      <c r="I50">
+        <v>90.54166666666669</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>20200619</v>
+      </c>
+      <c r="C51">
+        <v>9.25</v>
+      </c>
+      <c r="D51">
+        <v>24.45833333333333</v>
+      </c>
+      <c r="E51">
+        <v>0.5691666666666667</v>
+      </c>
+      <c r="F51">
+        <v>35.5</v>
+      </c>
+      <c r="G51">
+        <v>12.29166666666667</v>
+      </c>
+      <c r="H51">
+        <v>98</v>
+      </c>
+      <c r="I51">
+        <v>38.54166666666666</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>20200620</v>
+      </c>
+      <c r="C52">
+        <v>7.291666666666667</v>
+      </c>
+      <c r="D52">
+        <v>22.25</v>
+      </c>
+      <c r="E52">
+        <v>0.5475</v>
+      </c>
+      <c r="F52">
+        <v>79.91666666666667</v>
+      </c>
+      <c r="G52">
+        <v>10.70833333333333</v>
+      </c>
+      <c r="H52">
+        <v>123</v>
+      </c>
+      <c r="I52">
+        <v>51.79166666666666</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>20200621</v>
+      </c>
+      <c r="C53">
+        <v>6.958333333333333</v>
+      </c>
+      <c r="D53">
+        <v>12.25</v>
+      </c>
+      <c r="E53">
+        <v>0.5120833333333333</v>
+      </c>
+      <c r="F53">
+        <v>227.2083333333333</v>
+      </c>
+      <c r="G53">
+        <v>52.08333333333334</v>
+      </c>
+      <c r="H53">
+        <v>112</v>
+      </c>
+      <c r="I53">
+        <v>128.0416666666667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>20200622</v>
+      </c>
+      <c r="C54">
+        <v>8.916666666666666</v>
+      </c>
+      <c r="D54">
+        <v>30.08333333333333</v>
+      </c>
+      <c r="E54">
+        <v>0.6195833333333334</v>
+      </c>
+      <c r="F54">
+        <v>48.875</v>
+      </c>
+      <c r="G54">
+        <v>15.79166666666667</v>
+      </c>
+      <c r="H54">
+        <v>110</v>
+      </c>
+      <c r="I54">
+        <v>46.08333333333334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>20200623</v>
+      </c>
+      <c r="C55">
+        <v>10.45833333333333</v>
+      </c>
+      <c r="D55">
+        <v>33.83333333333334</v>
+      </c>
+      <c r="E55">
+        <v>0.635</v>
+      </c>
+      <c r="F55">
+        <v>44.875</v>
+      </c>
+      <c r="G55">
+        <v>14.08333333333333</v>
+      </c>
+      <c r="H55">
+        <v>105</v>
+      </c>
+      <c r="I55">
+        <v>43.625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>20200624</v>
+      </c>
+      <c r="C56">
+        <v>11.83333333333333</v>
+      </c>
+      <c r="D56">
+        <v>43.33333333333334</v>
+      </c>
+      <c r="E56">
+        <v>0.8366666666666668</v>
+      </c>
+      <c r="F56">
+        <v>101.7083333333333</v>
+      </c>
+      <c r="G56">
+        <v>24.875</v>
+      </c>
+      <c r="H56">
+        <v>125</v>
+      </c>
+      <c r="I56">
+        <v>75.33333333333333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>20200625</v>
+      </c>
+      <c r="C57">
+        <v>8.75</v>
+      </c>
+      <c r="D57">
+        <v>22.625</v>
+      </c>
+      <c r="E57">
+        <v>0.605</v>
+      </c>
+      <c r="F57">
+        <v>36.375</v>
+      </c>
+      <c r="G57">
+        <v>14.66666666666667</v>
+      </c>
+      <c r="H57">
+        <v>109</v>
+      </c>
+      <c r="I57">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>20200626</v>
+      </c>
+      <c r="C58">
+        <v>9.375</v>
+      </c>
+      <c r="D58">
+        <v>30.91666666666667</v>
+      </c>
+      <c r="E58">
+        <v>0.6745833333333334</v>
+      </c>
+      <c r="F58">
+        <v>52.75</v>
+      </c>
+      <c r="G58">
+        <v>16.83333333333333</v>
+      </c>
+      <c r="H58">
+        <v>135</v>
+      </c>
+      <c r="I58">
+        <v>51.41666666666666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>20200627</v>
+      </c>
+      <c r="C59">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>21.58333333333333</v>
+      </c>
+      <c r="E59">
+        <v>0.6208333333333333</v>
+      </c>
+      <c r="F59">
+        <v>81.875</v>
+      </c>
+      <c r="G59">
+        <v>23</v>
+      </c>
+      <c r="H59">
+        <v>122</v>
+      </c>
+      <c r="I59">
+        <v>65.95833333333333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>20200628</v>
+      </c>
+      <c r="C60">
+        <v>8.416666666666666</v>
+      </c>
+      <c r="D60">
+        <v>17.08333333333333</v>
+      </c>
+      <c r="E60">
+        <v>0.6083333333333333</v>
+      </c>
+      <c r="F60">
+        <v>66.79166666666667</v>
+      </c>
+      <c r="G60">
+        <v>14.875</v>
+      </c>
+      <c r="H60">
+        <v>107</v>
+      </c>
+      <c r="I60">
+        <v>58.125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>20200629</v>
+      </c>
+      <c r="C61">
+        <v>6.958333333333333</v>
+      </c>
+      <c r="D61">
+        <v>13.83333333333333</v>
+      </c>
+      <c r="E61">
+        <v>0.6220833333333333</v>
+      </c>
+      <c r="F61">
+        <v>21.75</v>
+      </c>
+      <c r="G61">
+        <v>10.20833333333333</v>
+      </c>
+      <c r="H61">
+        <v>80</v>
+      </c>
+      <c r="I61">
+        <v>28.04166666666667</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>20200630</v>
+      </c>
+      <c r="C62">
+        <v>6.791666666666667</v>
+      </c>
+      <c r="D62">
+        <v>19.125</v>
+      </c>
+      <c r="E62">
+        <v>0.6725</v>
+      </c>
+      <c r="F62">
+        <v>20.58333333333333</v>
+      </c>
+      <c r="G62">
+        <v>10.75</v>
+      </c>
+      <c r="H62">
+        <v>103</v>
+      </c>
+      <c r="I62">
+        <v>25.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
